--- a/Code/Results/Cases/Case_5_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,844 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.83890740682502</v>
+        <v>26.42118383314511</v>
       </c>
       <c r="C2">
-        <v>12.12571730316571</v>
+        <v>16.64865790233374</v>
       </c>
       <c r="D2">
-        <v>7.631731412974426</v>
+        <v>5.336258922637875</v>
       </c>
       <c r="E2">
-        <v>8.863961773797021</v>
+        <v>6.702691411838872</v>
       </c>
       <c r="F2">
-        <v>63.51536391458876</v>
+        <v>40.32817583781734</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.12747240149537</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>17.58004934332876</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>11.19155742463744</v>
+        <v>6.151547753749776</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>14.79040556857031</v>
+      </c>
+      <c r="N2">
+        <v>14.50971097079316</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.26849471772462</v>
+        <v>24.71718003369047</v>
       </c>
       <c r="C3">
-        <v>11.21938701007504</v>
+        <v>15.47567058996598</v>
       </c>
       <c r="D3">
-        <v>7.295856371665003</v>
+        <v>5.399100070812928</v>
       </c>
       <c r="E3">
-        <v>8.358632142846531</v>
+        <v>6.627171980669718</v>
       </c>
       <c r="F3">
-        <v>59.71726309340749</v>
+        <v>38.50104622898719</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.656632194008374</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>16.26531950554956</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>10.37194852856074</v>
+        <v>6.078935175467461</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>14.12613076348804</v>
+      </c>
+      <c r="N3">
+        <v>14.69421943513978</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.26467290510497</v>
+        <v>23.63570122605978</v>
       </c>
       <c r="C4">
-        <v>10.64071869707694</v>
+        <v>14.72118795771263</v>
       </c>
       <c r="D4">
-        <v>7.087206213673412</v>
+        <v>5.440742504564075</v>
       </c>
       <c r="E4">
-        <v>8.044810384518149</v>
+        <v>6.581098593838795</v>
       </c>
       <c r="F4">
-        <v>57.32730510325642</v>
+        <v>37.38315363987105</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.366266169794178</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>15.42378600584499</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>9.847551356574302</v>
+        <v>6.037750212838752</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>13.71603117460448</v>
+      </c>
+      <c r="N4">
+        <v>14.81256043272069</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.84534489388658</v>
+        <v>23.18629161099352</v>
       </c>
       <c r="C5">
-        <v>10.39908128519736</v>
+        <v>14.40493557689802</v>
       </c>
       <c r="D5">
-        <v>7.001543029263855</v>
+        <v>5.458434458036318</v>
       </c>
       <c r="E5">
-        <v>7.916089296842068</v>
+        <v>6.562370262443333</v>
       </c>
       <c r="F5">
-        <v>56.33886198556903</v>
+        <v>36.92892216880347</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.247655252586314</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>15.07191743316351</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>9.628339289557758</v>
+        <v>6.021800908285452</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13.54851250580897</v>
+      </c>
+      <c r="N5">
+        <v>14.86201144444065</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.77508789881904</v>
+        <v>23.1111487116391</v>
       </c>
       <c r="C6">
-        <v>10.35859894823397</v>
+        <v>14.35188603086335</v>
       </c>
       <c r="D6">
-        <v>6.987279791789597</v>
+        <v>5.461414576102738</v>
       </c>
       <c r="E6">
-        <v>7.894667163845154</v>
+        <v>6.559262527962402</v>
       </c>
       <c r="F6">
-        <v>56.17386114838389</v>
+        <v>36.85358807206243</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.227944377314692</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>15.01294151929902</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>9.591600774338206</v>
+        <v>6.01920229994767</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13.5206774066476</v>
+      </c>
+      <c r="N6">
+        <v>14.87029563991569</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.25905962542786</v>
+        <v>23.62967526813014</v>
       </c>
       <c r="C7">
-        <v>10.63748378755327</v>
+        <v>14.71695870086369</v>
       </c>
       <c r="D7">
-        <v>7.086053531595529</v>
+        <v>5.440978236778047</v>
       </c>
       <c r="E7">
-        <v>8.043077689385301</v>
+        <v>6.580845860985256</v>
       </c>
       <c r="F7">
-        <v>57.31403314756685</v>
+        <v>37.37702188821365</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.364667626624646</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>15.41907716314647</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>9.844617565341299</v>
+        <v>6.037531765816411</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13.71377333890755</v>
+      </c>
+      <c r="N7">
+        <v>14.81322243526382</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.30544184426539</v>
+        <v>25.84101457965967</v>
       </c>
       <c r="C8">
-        <v>11.81765953214273</v>
+        <v>16.25121028088956</v>
       </c>
       <c r="D8">
-        <v>7.516402039280816</v>
+        <v>5.357261867050666</v>
       </c>
       <c r="E8">
-        <v>8.69048101621787</v>
+        <v>6.67657336756609</v>
       </c>
       <c r="F8">
-        <v>62.21774699344886</v>
+        <v>39.69751988211696</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.96540122876773</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>17.13364554643913</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>10.91322171028543</v>
+        <v>6.125792580088258</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>14.56191260878537</v>
+      </c>
+      <c r="N8">
+        <v>14.57225196112592</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.02125357888958</v>
+        <v>30.06942240148047</v>
       </c>
       <c r="C9">
-        <v>13.96883254247673</v>
+        <v>18.99704985544563</v>
       </c>
       <c r="D9">
-        <v>8.343413896833532</v>
+        <v>5.219830241327336</v>
       </c>
       <c r="E9">
-        <v>10.0394495107278</v>
+        <v>6.868074260683333</v>
       </c>
       <c r="F9">
-        <v>71.386354187821</v>
+        <v>44.27091597161217</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.13362488111829</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>20.24011530381877</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>12.85104429978363</v>
+        <v>6.326845010035301</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>16.20230753572483</v>
+      </c>
+      <c r="N9">
+        <v>14.1422245369189</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.59891260437464</v>
+        <v>33.06578036152617</v>
       </c>
       <c r="C10">
-        <v>15.47085488633491</v>
+        <v>20.86849220617746</v>
       </c>
       <c r="D10">
-        <v>8.945808270358103</v>
+        <v>5.139291366158465</v>
       </c>
       <c r="E10">
-        <v>11.10382610710419</v>
+        <v>7.013431617588905</v>
       </c>
       <c r="F10">
-        <v>77.88768404816879</v>
+        <v>47.64260112110684</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.98934097392102</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>22.39298122456515</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>14.19520212190637</v>
+        <v>6.493155856264135</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>17.62744222064164</v>
+      </c>
+      <c r="N10">
+        <v>13.85640645191023</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.74670429710377</v>
+        <v>34.38572592698142</v>
       </c>
       <c r="C11">
-        <v>16.14298585889952</v>
+        <v>21.69191763653604</v>
       </c>
       <c r="D11">
-        <v>9.220486914535449</v>
+        <v>5.108249718251478</v>
       </c>
       <c r="E11">
-        <v>11.57721160629385</v>
+        <v>7.081222641657312</v>
       </c>
       <c r="F11">
-        <v>80.80934294908643</v>
+        <v>49.18140282650005</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.37981896530543</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>23.35159475959547</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>14.79401793197913</v>
+        <v>6.573257597783044</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>18.33322039101922</v>
+      </c>
+      <c r="N11">
+        <v>13.73415820428887</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.17864171255271</v>
+        <v>34.87983994700562</v>
       </c>
       <c r="C12">
-        <v>16.39651217918717</v>
+        <v>22.00008090747259</v>
       </c>
       <c r="D12">
-        <v>9.324797444335676</v>
+        <v>5.097419610686858</v>
       </c>
       <c r="E12">
-        <v>11.7552732678603</v>
+        <v>7.107199806939129</v>
       </c>
       <c r="F12">
-        <v>81.91233646550472</v>
+        <v>49.76524015199226</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.52808507683411</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>23.71237483502579</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>15.01943242200679</v>
+        <v>6.60426971206272</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>18.59711746164672</v>
+      </c>
+      <c r="N12">
+        <v>13.68911624253489</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.08572095773059</v>
+        <v>34.77366949226887</v>
       </c>
       <c r="C13">
-        <v>16.34194394551128</v>
+        <v>21.93386840715077</v>
       </c>
       <c r="D13">
-        <v>9.302315321163611</v>
+        <v>5.099708796711532</v>
       </c>
       <c r="E13">
-        <v>11.71697140793929</v>
+        <v>7.101590350218895</v>
       </c>
       <c r="F13">
-        <v>81.67490339795314</v>
+        <v>49.63944175404698</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.49613104054776</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>23.63475967748808</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>14.97093653513996</v>
+        <v>6.597559768068244</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>18.54042727868483</v>
+      </c>
+      <c r="N13">
+        <v>13.69875878312481</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.78228871034509</v>
+        <v>34.42648857381698</v>
       </c>
       <c r="C14">
-        <v>16.16385962763242</v>
+        <v>21.71734129518505</v>
       </c>
       <c r="D14">
-        <v>9.229061317507975</v>
+        <v>5.107339421521478</v>
       </c>
       <c r="E14">
-        <v>11.59188259048239</v>
+        <v>7.083353237558593</v>
       </c>
       <c r="F14">
-        <v>80.90014253913915</v>
+        <v>49.22940990229495</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.39200729966955</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>23.38131608323552</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>14.81258678560237</v>
+        <v>6.575795112837439</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>18.35499705965744</v>
+      </c>
+      <c r="N14">
+        <v>13.73042664451326</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.59610385780883</v>
+        <v>34.21310096545978</v>
       </c>
       <c r="C15">
-        <v>16.05466844841754</v>
+        <v>21.58424852773593</v>
       </c>
       <c r="D15">
-        <v>9.184236597277843</v>
+        <v>5.112137752799788</v>
       </c>
       <c r="E15">
-        <v>11.51511765682638</v>
+        <v>7.072224534950819</v>
       </c>
       <c r="F15">
-        <v>80.42520095123898</v>
+        <v>48.97841550525909</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.32828873236906</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>23.22580972321048</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>14.71543370215354</v>
+        <v>6.562553413645189</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>18.24098641600827</v>
+      </c>
+      <c r="N15">
+        <v>13.74999144165322</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.52347220138974</v>
+        <v>32.97869021737217</v>
       </c>
       <c r="C16">
-        <v>15.42675442867666</v>
+        <v>20.81414770208693</v>
       </c>
       <c r="D16">
-        <v>8.927886489003713</v>
+        <v>5.141442392640661</v>
       </c>
       <c r="E16">
-        <v>11.07270057126313</v>
+        <v>7.009040269534437</v>
       </c>
       <c r="F16">
-        <v>77.69616649700851</v>
+        <v>47.54216813796756</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.96386429616848</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>22.32997753920015</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>14.1558520380529</v>
+        <v>6.488013741274287</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>17.58083073029082</v>
+      </c>
+      <c r="N16">
+        <v>13.86456282545604</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.85965387253455</v>
+        <v>32.21069055140436</v>
       </c>
       <c r="C17">
-        <v>15.03908976645841</v>
+        <v>20.33481057925251</v>
       </c>
       <c r="D17">
-        <v>8.770917289988679</v>
+        <v>5.160931947852169</v>
       </c>
       <c r="E17">
-        <v>10.79875583241591</v>
+        <v>6.970749365418843</v>
       </c>
       <c r="F17">
-        <v>76.01392832024469</v>
+        <v>46.66259135034223</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.74074921007466</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>21.77559483677517</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>13.8096364445787</v>
+        <v>6.443451083395489</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>17.16953823924525</v>
+      </c>
+      <c r="N17">
+        <v>13.93692568541237</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.47544833226431</v>
+        <v>31.7648658651902</v>
       </c>
       <c r="C18">
-        <v>14.81502342498635</v>
+        <v>20.05645759838571</v>
       </c>
       <c r="D18">
-        <v>8.680678589259431</v>
+        <v>5.172660191046729</v>
       </c>
       <c r="E18">
-        <v>10.64014825247607</v>
+        <v>6.948877757184331</v>
       </c>
       <c r="F18">
-        <v>75.04284384931452</v>
+        <v>46.15711824054805</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.61251534872205</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>21.45472383721871</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>13.60927858220174</v>
+        <v>6.418235545416382</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>16.93056711113207</v>
+      </c>
+      <c r="N18">
+        <v>13.97926897090435</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.34492823552002</v>
+        <v>31.61320137069195</v>
       </c>
       <c r="C19">
-        <v>14.73895430491048</v>
+        <v>19.9617465705931</v>
       </c>
       <c r="D19">
-        <v>8.65012786972817</v>
+        <v>5.176716885222206</v>
       </c>
       <c r="E19">
-        <v>10.58625781533385</v>
+        <v>6.941496733120657</v>
       </c>
       <c r="F19">
-        <v>74.71340298664281</v>
+        <v>45.98603920546958</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.56910836573927</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>21.34571745473784</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>13.54121768785479</v>
+        <v>6.409768294234908</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>16.84923430009503</v>
+      </c>
+      <c r="N19">
+        <v>13.99372607177312</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.93056065085512</v>
+        <v>32.2928657004838</v>
       </c>
       <c r="C20">
-        <v>15.0804663231126</v>
+        <v>20.38610874153449</v>
       </c>
       <c r="D20">
-        <v>8.787620888540671</v>
+        <v>5.15880280042504</v>
       </c>
       <c r="E20">
-        <v>10.82802319250497</v>
+        <v>6.974809291329513</v>
       </c>
       <c r="F20">
-        <v>76.19335695181371</v>
+        <v>46.75617629116287</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.76448885120625</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>21.83481230262513</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>13.84661520432088</v>
+        <v>6.448151561702992</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>17.21356817988043</v>
+      </c>
+      <c r="N20">
+        <v>13.92914692362857</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.87147980433823</v>
+        <v>34.52861502165893</v>
       </c>
       <c r="C21">
-        <v>16.21618883544659</v>
+        <v>21.78103645677384</v>
       </c>
       <c r="D21">
-        <v>9.250567874851518</v>
+        <v>5.105071961456484</v>
       </c>
       <c r="E21">
-        <v>11.62865356784304</v>
+        <v>7.088701018772399</v>
       </c>
       <c r="F21">
-        <v>81.12778349149956</v>
+        <v>49.34981145350645</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.42257789600434</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>23.45581222811629</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>14.85913015158258</v>
+        <v>6.582169127311545</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>18.40955131047203</v>
+      </c>
+      <c r="N21">
+        <v>13.72108987915366</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.12474912230672</v>
+        <v>35.95675119921565</v>
       </c>
       <c r="C22">
-        <v>16.95303071065524</v>
+        <v>22.67163707669575</v>
       </c>
       <c r="D22">
-        <v>9.554991248941382</v>
+        <v>5.075417728625132</v>
       </c>
       <c r="E22">
-        <v>12.14514302566131</v>
+        <v>7.164960831586556</v>
       </c>
       <c r="F22">
-        <v>84.33425745117891</v>
+        <v>51.05179550448384</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.85517745937686</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>24.50272611837215</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>15.51332966906099</v>
+        <v>6.673741297470978</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>19.17173841052082</v>
+      </c>
+      <c r="N22">
+        <v>13.59248625798243</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.45691509148052</v>
+        <v>35.19737026787462</v>
       </c>
       <c r="C23">
-        <v>16.56002404675444</v>
+        <v>22.19809955916546</v>
       </c>
       <c r="D23">
-        <v>9.392262184831271</v>
+        <v>5.090699440901122</v>
       </c>
       <c r="E23">
-        <v>11.8699651601664</v>
+        <v>7.12406720781775</v>
       </c>
       <c r="F23">
-        <v>82.62386489299656</v>
+        <v>50.14259957692349</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.62396576177064</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>23.94481991688341</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>15.16467686954396</v>
+        <v>6.624487720112933</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>18.76662107355639</v>
+      </c>
+      <c r="N23">
+        <v>13.66039814301607</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.89851175613308</v>
+        <v>32.25572771744572</v>
       </c>
       <c r="C24">
-        <v>15.06176374120294</v>
+        <v>20.36292551455774</v>
       </c>
       <c r="D24">
-        <v>8.780069190666834</v>
+        <v>5.159763766391473</v>
       </c>
       <c r="E24">
-        <v>10.81479491186705</v>
+        <v>6.972973360280188</v>
       </c>
       <c r="F24">
-        <v>76.11224967746351</v>
+        <v>46.71386592197913</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.75375605723412</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>21.80804683493321</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>13.82990123409051</v>
+        <v>6.44602521960732</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>17.19367009372816</v>
+      </c>
+      <c r="N24">
+        <v>13.9326614037993</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.04518075711473</v>
+        <v>28.9250349101018</v>
       </c>
       <c r="C25">
-        <v>13.40238079606076</v>
+        <v>18.28099444621713</v>
       </c>
       <c r="D25">
-        <v>8.121073950503904</v>
+        <v>5.253763255480446</v>
       </c>
       <c r="E25">
-        <v>9.635888441284834</v>
+        <v>6.81564256794211</v>
       </c>
       <c r="F25">
-        <v>68.95112303587911</v>
+        <v>43.0319651615434</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.81845138743569</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>19.42462990085547</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>12.34213965580144</v>
+        <v>6.269310756980458</v>
       </c>
       <c r="M25">
+        <v>15.76152157922952</v>
+      </c>
+      <c r="N25">
+        <v>14.2536246464919</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_55/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.42118383314511</v>
+        <v>18.64173273579062</v>
       </c>
       <c r="C2">
-        <v>16.64865790233374</v>
+        <v>6.526677680413173</v>
       </c>
       <c r="D2">
-        <v>5.336258922637875</v>
+        <v>2.139438377898516</v>
       </c>
       <c r="E2">
-        <v>6.702691411838872</v>
+        <v>6.207073003677071</v>
       </c>
       <c r="F2">
-        <v>40.32817583781734</v>
+        <v>41.65390259416528</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.233051644465846</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.77810408946214</v>
       </c>
       <c r="L2">
-        <v>6.151547753749776</v>
+        <v>6.864669939229739</v>
       </c>
       <c r="M2">
-        <v>14.79040556857031</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.50971097079316</v>
+        <v>18.29379584521667</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.71718003369047</v>
+        <v>17.79796031180291</v>
       </c>
       <c r="C3">
-        <v>15.47567058996598</v>
+        <v>6.080673555339358</v>
       </c>
       <c r="D3">
-        <v>5.399100070812928</v>
+        <v>2.128689981341773</v>
       </c>
       <c r="E3">
-        <v>6.627171980669718</v>
+        <v>6.195233684659851</v>
       </c>
       <c r="F3">
-        <v>38.50104622898719</v>
+        <v>40.93144148890512</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.268078262819193</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.14623665520972</v>
       </c>
       <c r="L3">
-        <v>6.078935175467461</v>
+        <v>6.777600288610544</v>
       </c>
       <c r="M3">
-        <v>14.12613076348804</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.69421943513978</v>
+        <v>18.40575436275642</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.63570122605978</v>
+        <v>17.27298234826948</v>
       </c>
       <c r="C4">
-        <v>14.72118795771263</v>
+        <v>5.792838768070951</v>
       </c>
       <c r="D4">
-        <v>5.440742504564075</v>
+        <v>2.121504986057914</v>
       </c>
       <c r="E4">
-        <v>6.581098593838795</v>
+        <v>6.190250343283442</v>
       </c>
       <c r="F4">
-        <v>37.38315363987105</v>
+        <v>40.50840047909804</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.291010724973931</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.75466379689457</v>
       </c>
       <c r="L4">
-        <v>6.037750212838752</v>
+        <v>6.727200212399212</v>
       </c>
       <c r="M4">
-        <v>13.71603117460448</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>14.81256043272069</v>
+        <v>18.47940475098187</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.18629161099352</v>
+        <v>17.05759719338583</v>
       </c>
       <c r="C5">
-        <v>14.40493557689802</v>
+        <v>5.671986498689485</v>
       </c>
       <c r="D5">
-        <v>5.458434458036318</v>
+        <v>2.118433604274767</v>
       </c>
       <c r="E5">
-        <v>6.562370262443333</v>
+        <v>6.188785219527592</v>
       </c>
       <c r="F5">
-        <v>36.92892216880347</v>
+        <v>40.34115075410514</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.300712621558321</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.59439945465608</v>
       </c>
       <c r="L5">
-        <v>6.021800908285452</v>
+        <v>6.707431373358482</v>
       </c>
       <c r="M5">
-        <v>13.54851250580897</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>14.86201144444065</v>
+        <v>18.51061981608551</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.1111487116391</v>
+        <v>17.02175399873835</v>
       </c>
       <c r="C6">
-        <v>14.35188603086335</v>
+        <v>5.651703120187846</v>
       </c>
       <c r="D6">
-        <v>5.461414576102738</v>
+        <v>2.117915051564893</v>
       </c>
       <c r="E6">
-        <v>6.559262527962402</v>
+        <v>6.18857583036427</v>
       </c>
       <c r="F6">
-        <v>36.85358807206243</v>
+        <v>40.3136888130438</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.302345109945648</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.56775240556372</v>
       </c>
       <c r="L6">
-        <v>6.01920229994767</v>
+        <v>6.704195231438812</v>
       </c>
       <c r="M6">
-        <v>13.5206774066476</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>14.87029563991569</v>
+        <v>18.51587476395263</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.62967526813014</v>
+        <v>17.27008306557144</v>
       </c>
       <c r="C7">
-        <v>14.71695870086369</v>
+        <v>5.791223365798192</v>
       </c>
       <c r="D7">
-        <v>5.440978236778047</v>
+        <v>2.121464140088945</v>
       </c>
       <c r="E7">
-        <v>6.580845860985256</v>
+        <v>6.190228306050831</v>
       </c>
       <c r="F7">
-        <v>37.37702188821365</v>
+        <v>40.50612410544313</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.291140126019437</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.75250493140332</v>
       </c>
       <c r="L7">
-        <v>6.037531765816411</v>
+        <v>6.726930487706761</v>
       </c>
       <c r="M7">
-        <v>13.71377333890755</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>14.81322243526382</v>
+        <v>18.47982090196336</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.84101457965967</v>
+        <v>18.35238793138835</v>
       </c>
       <c r="C8">
-        <v>16.25121028088956</v>
+        <v>6.375772878678997</v>
       </c>
       <c r="D8">
-        <v>5.357261867050666</v>
+        <v>2.135856095002847</v>
       </c>
       <c r="E8">
-        <v>6.67657336756609</v>
+        <v>6.202510768916826</v>
       </c>
       <c r="F8">
-        <v>39.69751988211696</v>
+        <v>41.40051840601516</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.244831689469029</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.56110177438963</v>
       </c>
       <c r="L8">
-        <v>6.125792580088258</v>
+        <v>6.834013168810078</v>
       </c>
       <c r="M8">
-        <v>14.56191260878537</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>14.57225196112592</v>
+        <v>18.33136040824619</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.06942240148047</v>
+        <v>20.40987430059008</v>
       </c>
       <c r="C9">
-        <v>18.99704985544563</v>
+        <v>7.413121107897798</v>
       </c>
       <c r="D9">
-        <v>5.219830241327336</v>
+        <v>2.159267173390562</v>
       </c>
       <c r="E9">
-        <v>6.868074260683333</v>
+        <v>6.245156765307052</v>
       </c>
       <c r="F9">
-        <v>44.27091597161217</v>
+        <v>43.31858897532688</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.165429281413132</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.11043333306278</v>
       </c>
       <c r="L9">
-        <v>6.326845010035301</v>
+        <v>7.068277063531012</v>
       </c>
       <c r="M9">
-        <v>16.20230753572483</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>14.1422245369189</v>
+        <v>18.08076879801479</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.06578036152617</v>
+        <v>21.87145644241457</v>
       </c>
       <c r="C10">
-        <v>20.86849220617746</v>
+        <v>8.11195982653987</v>
       </c>
       <c r="D10">
-        <v>5.139291366158465</v>
+        <v>2.173308588622494</v>
       </c>
       <c r="E10">
-        <v>7.013431617588905</v>
+        <v>6.288402453627398</v>
       </c>
       <c r="F10">
-        <v>47.64260112110684</v>
+        <v>44.82974397315375</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.114195942702374</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.21848023986443</v>
       </c>
       <c r="L10">
-        <v>6.493155856264135</v>
+        <v>7.255190293601754</v>
       </c>
       <c r="M10">
-        <v>17.62744222064164</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>13.85640645191023</v>
+        <v>17.92386138420658</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.38572592698142</v>
+        <v>22.5241469333907</v>
       </c>
       <c r="C11">
-        <v>21.69191763653604</v>
+        <v>8.416907679203335</v>
       </c>
       <c r="D11">
-        <v>5.108249718251478</v>
+        <v>2.178962237512665</v>
       </c>
       <c r="E11">
-        <v>7.081222641657312</v>
+        <v>6.3107989280987</v>
       </c>
       <c r="F11">
-        <v>49.18140282650005</v>
+        <v>45.5399381842924</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.092470370255405</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.71491304902896</v>
       </c>
       <c r="L11">
-        <v>6.573257597783044</v>
+        <v>7.343448326441955</v>
       </c>
       <c r="M11">
-        <v>18.33322039101922</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>13.73415820428887</v>
+        <v>17.85902491926218</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.87983994700562</v>
+        <v>22.76949106779258</v>
       </c>
       <c r="C12">
-        <v>22.00008090747259</v>
+        <v>8.530591083724316</v>
       </c>
       <c r="D12">
-        <v>5.097419610686858</v>
+        <v>2.180993592923747</v>
       </c>
       <c r="E12">
-        <v>7.107199806939129</v>
+        <v>6.319683322179332</v>
       </c>
       <c r="F12">
-        <v>49.76524015199226</v>
+        <v>45.81221097188989</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.084474665498682</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.90175317671103</v>
       </c>
       <c r="L12">
-        <v>6.60426971206272</v>
+        <v>7.37733622470182</v>
       </c>
       <c r="M12">
-        <v>18.59711746164672</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>13.68911624253489</v>
+        <v>17.83547498098611</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.77366949226887</v>
+        <v>22.71673314819884</v>
       </c>
       <c r="C13">
-        <v>21.93386840715077</v>
+        <v>8.506185925241558</v>
       </c>
       <c r="D13">
-        <v>5.099708796711532</v>
+        <v>2.180561041202206</v>
       </c>
       <c r="E13">
-        <v>7.101590350218895</v>
+        <v>6.317751776973498</v>
       </c>
       <c r="F13">
-        <v>49.63944175404698</v>
+        <v>45.75342243104963</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.086186327521788</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.86156538550325</v>
       </c>
       <c r="L13">
-        <v>6.597559768068244</v>
+        <v>7.370017057507555</v>
       </c>
       <c r="M13">
-        <v>18.54042727868483</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>13.69875878312481</v>
+        <v>17.8405012491604</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.42648857381698</v>
+        <v>22.54436814961563</v>
       </c>
       <c r="C14">
-        <v>21.71734129518505</v>
+        <v>8.426296007946563</v>
       </c>
       <c r="D14">
-        <v>5.107339421521478</v>
+        <v>2.179131577210856</v>
       </c>
       <c r="E14">
-        <v>7.083353237558593</v>
+        <v>6.311521699720757</v>
       </c>
       <c r="F14">
-        <v>49.22940990229495</v>
+        <v>45.56227088539812</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.091807898578437</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>17.73030770099267</v>
       </c>
       <c r="L14">
-        <v>6.575795112837439</v>
+        <v>7.346226936054078</v>
       </c>
       <c r="M14">
-        <v>18.35499705965744</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>13.73042664451326</v>
+        <v>17.85706698709697</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.21310096545978</v>
+        <v>22.43855197778101</v>
       </c>
       <c r="C15">
-        <v>21.58424852773593</v>
+        <v>8.3771297089142</v>
       </c>
       <c r="D15">
-        <v>5.112137752799788</v>
+        <v>2.178241601557338</v>
       </c>
       <c r="E15">
-        <v>7.072224534950819</v>
+        <v>6.307758482043781</v>
       </c>
       <c r="F15">
-        <v>48.97841550525909</v>
+        <v>45.4456220179364</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.095281522117236</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.64975802135561</v>
       </c>
       <c r="L15">
-        <v>6.562553413645189</v>
+        <v>7.331715645852537</v>
       </c>
       <c r="M15">
-        <v>18.24098641600827</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>13.74999144165322</v>
+        <v>17.86734644960861</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.97869021737217</v>
+        <v>21.82855003222453</v>
       </c>
       <c r="C16">
-        <v>20.81414770208693</v>
+        <v>8.091775823851187</v>
       </c>
       <c r="D16">
-        <v>5.141442392640661</v>
+        <v>2.172923998066004</v>
       </c>
       <c r="E16">
-        <v>7.009040269534437</v>
+        <v>6.28699458152692</v>
       </c>
       <c r="F16">
-        <v>47.54216813796756</v>
+        <v>44.78379414263767</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.1156478980789</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.18587865600658</v>
       </c>
       <c r="L16">
-        <v>6.488013741274287</v>
+        <v>7.249487549462799</v>
       </c>
       <c r="M16">
-        <v>17.58083073029082</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>13.86456282545604</v>
+        <v>17.92823533228148</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.21069055140436</v>
+        <v>21.45115429819129</v>
       </c>
       <c r="C17">
-        <v>20.33481057925251</v>
+        <v>7.913449165406636</v>
       </c>
       <c r="D17">
-        <v>5.160931947852169</v>
+        <v>2.169470998802558</v>
       </c>
       <c r="E17">
-        <v>6.970749365418843</v>
+        <v>6.27496230871038</v>
       </c>
       <c r="F17">
-        <v>46.66259135034223</v>
+        <v>44.38365308995919</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.12854955719691</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.89930462606229</v>
       </c>
       <c r="L17">
-        <v>6.443451083395489</v>
+        <v>7.19987143410871</v>
       </c>
       <c r="M17">
-        <v>17.16953823924525</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>13.93692568541237</v>
+        <v>17.96730571795045</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.7648658651902</v>
+        <v>21.23294004792555</v>
       </c>
       <c r="C18">
-        <v>20.05645759838571</v>
+        <v>7.809656236114799</v>
       </c>
       <c r="D18">
-        <v>5.172660191046729</v>
+        <v>2.167416092430698</v>
       </c>
       <c r="E18">
-        <v>6.948877757184331</v>
+        <v>6.268297305944524</v>
       </c>
       <c r="F18">
-        <v>46.15711824054805</v>
+        <v>44.15563999459103</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.136118768700737</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.73375847464095</v>
       </c>
       <c r="L18">
-        <v>6.418235545416382</v>
+        <v>7.171637386750267</v>
       </c>
       <c r="M18">
-        <v>16.93056711113207</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>13.97926897090435</v>
+        <v>17.99038959765064</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.61320137069195</v>
+        <v>21.15886213987044</v>
       </c>
       <c r="C19">
-        <v>19.9617465705931</v>
+        <v>7.77430147306746</v>
       </c>
       <c r="D19">
-        <v>5.176716885222206</v>
+        <v>2.166708636928853</v>
       </c>
       <c r="E19">
-        <v>6.941496733120657</v>
+        <v>6.266084213379056</v>
       </c>
       <c r="F19">
-        <v>45.98603920546958</v>
+        <v>44.07880418518172</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.138706968301537</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.67758643611641</v>
       </c>
       <c r="L19">
-        <v>6.409768294234908</v>
+        <v>7.162129977650995</v>
       </c>
       <c r="M19">
-        <v>16.84923430009503</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>13.99372607177312</v>
+        <v>17.9983086892398</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.2928657004838</v>
+        <v>21.49144792406836</v>
       </c>
       <c r="C20">
-        <v>20.38610874153449</v>
+        <v>7.932558555127827</v>
       </c>
       <c r="D20">
-        <v>5.15880280042504</v>
+        <v>2.169845729511338</v>
       </c>
       <c r="E20">
-        <v>6.974809291329513</v>
+        <v>6.276216624494325</v>
       </c>
       <c r="F20">
-        <v>46.75617629116287</v>
+        <v>44.42602717498778</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.127160755151371</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.9298855324379</v>
       </c>
       <c r="L20">
-        <v>6.448151561702992</v>
+        <v>7.20512170104151</v>
       </c>
       <c r="M20">
-        <v>17.21356817988043</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>13.92914692362857</v>
+        <v>17.9630828842963</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.52861502165893</v>
+        <v>22.59504550741722</v>
       </c>
       <c r="C21">
-        <v>21.78103645677384</v>
+        <v>8.449809706750591</v>
       </c>
       <c r="D21">
-        <v>5.105071961456484</v>
+        <v>2.179554451031146</v>
       </c>
       <c r="E21">
-        <v>7.088701018772399</v>
+        <v>6.313340581479267</v>
       </c>
       <c r="F21">
-        <v>49.34981145350645</v>
+        <v>45.61832551381736</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.09015039518863</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.76889269127845</v>
       </c>
       <c r="L21">
-        <v>6.582169127311545</v>
+        <v>7.353201984524158</v>
       </c>
       <c r="M21">
-        <v>18.40955131047203</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>13.72108987915366</v>
+        <v>17.85217350151394</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.95675119921565</v>
+        <v>23.30572618712366</v>
       </c>
       <c r="C22">
-        <v>22.67163707669575</v>
+        <v>8.77744529134314</v>
       </c>
       <c r="D22">
-        <v>5.075417728625132</v>
+        <v>2.185259188063489</v>
       </c>
       <c r="E22">
-        <v>7.164960831586556</v>
+        <v>6.339960153734685</v>
       </c>
       <c r="F22">
-        <v>51.05179550448384</v>
+        <v>46.41706389614151</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.067312397207816</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.31053698447599</v>
       </c>
       <c r="L22">
-        <v>6.673741297470978</v>
+        <v>7.452702677567374</v>
       </c>
       <c r="M22">
-        <v>19.17173841052082</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>13.59248625798243</v>
+        <v>17.7855634904086</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.19737026787462</v>
+        <v>22.92740156612244</v>
       </c>
       <c r="C23">
-        <v>22.19809955916546</v>
+        <v>8.603508479049912</v>
       </c>
       <c r="D23">
-        <v>5.090699440901122</v>
+        <v>2.182274401783404</v>
       </c>
       <c r="E23">
-        <v>7.12406720781775</v>
+        <v>6.32553307684818</v>
       </c>
       <c r="F23">
-        <v>50.14259957692349</v>
+        <v>45.98894996254636</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.07937644919829</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.02207322613978</v>
       </c>
       <c r="L23">
-        <v>6.624487720112933</v>
+        <v>7.399347015484701</v>
       </c>
       <c r="M23">
-        <v>18.76662107355639</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>13.66039814301607</v>
+        <v>17.82055460385818</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.25572771744572</v>
+        <v>21.47323504666598</v>
       </c>
       <c r="C24">
-        <v>20.36292551455774</v>
+        <v>7.923923162710493</v>
       </c>
       <c r="D24">
-        <v>5.159763766391473</v>
+        <v>2.169676530650648</v>
       </c>
       <c r="E24">
-        <v>6.972973360280188</v>
+        <v>6.275648762684047</v>
       </c>
       <c r="F24">
-        <v>46.71386592197913</v>
+        <v>44.40686352232376</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.127788159792705</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.91606236390726</v>
       </c>
       <c r="L24">
-        <v>6.44602521960732</v>
+        <v>7.202747149333402</v>
       </c>
       <c r="M24">
-        <v>17.19367009372816</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>13.9326614037993</v>
+        <v>17.96499009520782</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.9250349101018</v>
+        <v>19.86146289269958</v>
       </c>
       <c r="C25">
-        <v>18.28099444621713</v>
+        <v>7.143850469885709</v>
       </c>
       <c r="D25">
-        <v>5.253763255480446</v>
+        <v>2.153472268337858</v>
       </c>
       <c r="E25">
-        <v>6.81564256794211</v>
+        <v>6.231572028293219</v>
       </c>
       <c r="F25">
-        <v>43.0319651615434</v>
+        <v>42.78195105345318</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.185674258756099</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.69614078222805</v>
       </c>
       <c r="L25">
-        <v>6.269310756980458</v>
+        <v>7.002304131226516</v>
       </c>
       <c r="M25">
-        <v>15.76152157922952</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>14.2536246464919</v>
+        <v>18.14398068575614</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_55/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.64173273579062</v>
+        <v>23.11014822181284</v>
       </c>
       <c r="C2">
-        <v>6.526677680413173</v>
+        <v>4.362399951498389</v>
       </c>
       <c r="D2">
-        <v>2.139438377898516</v>
+        <v>4.072610582564346</v>
       </c>
       <c r="E2">
-        <v>6.207073003677071</v>
+        <v>10.98770551718587</v>
       </c>
       <c r="F2">
-        <v>41.65390259416528</v>
+        <v>55.77520609594342</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.233051644465846</v>
+        <v>10.54774182860877</v>
       </c>
       <c r="K2">
-        <v>14.77810408946214</v>
+        <v>19.0138559828884</v>
       </c>
       <c r="L2">
-        <v>6.864669939229739</v>
+        <v>11.57069076593228</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.29379584521667</v>
+        <v>26.33251820137313</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.79796031180291</v>
+        <v>23.01054385223804</v>
       </c>
       <c r="C3">
-        <v>6.080673555339358</v>
+        <v>4.225191698887947</v>
       </c>
       <c r="D3">
-        <v>2.128689981341773</v>
+        <v>4.079697481276648</v>
       </c>
       <c r="E3">
-        <v>6.195233684659851</v>
+        <v>11.00629192790168</v>
       </c>
       <c r="F3">
-        <v>40.93144148890512</v>
+        <v>55.7402908538503</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.268078262819193</v>
+        <v>10.5652801806097</v>
       </c>
       <c r="K3">
-        <v>14.14623665520972</v>
+        <v>18.94947017374801</v>
       </c>
       <c r="L3">
-        <v>6.777600288610544</v>
+        <v>11.5852058515645</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40575436275642</v>
+        <v>26.36910687975005</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.27298234826948</v>
+        <v>22.95471465579007</v>
       </c>
       <c r="C4">
-        <v>5.792838768070951</v>
+        <v>4.140185687579641</v>
       </c>
       <c r="D4">
-        <v>2.121504986057914</v>
+        <v>4.084579972641775</v>
       </c>
       <c r="E4">
-        <v>6.190250343283442</v>
+        <v>11.01884644128617</v>
       </c>
       <c r="F4">
-        <v>40.50840047909804</v>
+        <v>55.72818307309109</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.291010724973931</v>
+        <v>10.57678869411716</v>
       </c>
       <c r="K4">
-        <v>13.75466379689457</v>
+        <v>18.91422504216162</v>
       </c>
       <c r="L4">
-        <v>6.727200212399212</v>
+        <v>11.59577601372099</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.47940475098187</v>
+        <v>26.39343557131997</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.05759719338583</v>
+        <v>22.93332124749067</v>
       </c>
       <c r="C5">
-        <v>5.671986498689485</v>
+        <v>4.105417302812604</v>
       </c>
       <c r="D5">
-        <v>2.118433604274767</v>
+        <v>4.086703563336673</v>
       </c>
       <c r="E5">
-        <v>6.188785219527592</v>
+        <v>11.02425022335494</v>
       </c>
       <c r="F5">
-        <v>40.34115075410514</v>
+        <v>55.7255980272905</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.300712621558321</v>
+        <v>10.58166498311184</v>
       </c>
       <c r="K5">
-        <v>13.59439945465608</v>
+        <v>18.90095104056489</v>
       </c>
       <c r="L5">
-        <v>6.707431373358482</v>
+        <v>11.60050059881648</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.51061981608551</v>
+        <v>26.40381832645444</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.02175399873835</v>
+        <v>22.92985135312854</v>
       </c>
       <c r="C6">
-        <v>5.651703120187846</v>
+        <v>4.099638247599882</v>
       </c>
       <c r="D6">
-        <v>2.117915051564893</v>
+        <v>4.087064284519724</v>
       </c>
       <c r="E6">
-        <v>6.18857583036427</v>
+        <v>11.02516490779655</v>
       </c>
       <c r="F6">
-        <v>40.3136888130438</v>
+        <v>55.72531071282157</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.302345109945648</v>
+        <v>10.58248596237768</v>
       </c>
       <c r="K6">
-        <v>13.56775240556372</v>
+        <v>18.89881293580175</v>
       </c>
       <c r="L6">
-        <v>6.704195231438812</v>
+        <v>11.60131031496336</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.51587476395263</v>
+        <v>26.40557068202578</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.27008306557144</v>
+        <v>22.95442061871004</v>
       </c>
       <c r="C7">
-        <v>5.791223365798192</v>
+        <v>4.139717219775897</v>
       </c>
       <c r="D7">
-        <v>2.121464140088945</v>
+        <v>4.08460806930987</v>
       </c>
       <c r="E7">
-        <v>6.190228306050831</v>
+        <v>11.01891815302656</v>
       </c>
       <c r="F7">
-        <v>40.50612410544313</v>
+        <v>55.72813869669325</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.291140126019437</v>
+        <v>10.57685370185924</v>
       </c>
       <c r="K7">
-        <v>13.75250493140332</v>
+        <v>18.91404160353057</v>
       </c>
       <c r="L7">
-        <v>6.726930487706761</v>
+        <v>11.59583804174437</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.47982090196336</v>
+        <v>26.39357369926628</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.35238793138835</v>
+        <v>23.07470985126999</v>
       </c>
       <c r="C8">
-        <v>6.375772878678997</v>
+        <v>4.315284923833558</v>
       </c>
       <c r="D8">
-        <v>2.135856095002847</v>
+        <v>4.074944146152868</v>
       </c>
       <c r="E8">
-        <v>6.202510768916826</v>
+        <v>10.99387728485612</v>
       </c>
       <c r="F8">
-        <v>41.40051840601516</v>
+        <v>55.76123281552786</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.244831689469029</v>
+        <v>10.55363574196723</v>
       </c>
       <c r="K8">
-        <v>14.56110177438963</v>
+        <v>18.99077240310506</v>
       </c>
       <c r="L8">
-        <v>6.834013168810078</v>
+        <v>11.57535166643915</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.33136040824619</v>
+        <v>26.34474736712688</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.40987430059008</v>
+        <v>23.3520190219868</v>
       </c>
       <c r="C9">
-        <v>7.413121107897798</v>
+        <v>4.650974767891701</v>
       </c>
       <c r="D9">
-        <v>2.159267173390562</v>
+        <v>4.060190355806073</v>
       </c>
       <c r="E9">
-        <v>6.245156765307052</v>
+        <v>10.95381647650092</v>
       </c>
       <c r="F9">
-        <v>43.31858897532688</v>
+        <v>55.89999844643911</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.165429281413132</v>
+        <v>10.51395716349023</v>
       </c>
       <c r="K9">
-        <v>16.11043333306278</v>
+        <v>19.17475127010964</v>
       </c>
       <c r="L9">
-        <v>7.068277063531012</v>
+        <v>11.54831855604573</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.08076879801479</v>
+        <v>26.26377667652612</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.87145644241457</v>
+        <v>23.57975211656572</v>
       </c>
       <c r="C10">
-        <v>8.11195982653987</v>
+        <v>4.889233984693912</v>
       </c>
       <c r="D10">
-        <v>2.173308588622494</v>
+        <v>4.051886533502564</v>
       </c>
       <c r="E10">
-        <v>6.288402453627398</v>
+        <v>10.92987039635468</v>
       </c>
       <c r="F10">
-        <v>44.82974397315375</v>
+        <v>56.0467014494914</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.114195942702374</v>
+        <v>10.48834671072442</v>
       </c>
       <c r="K10">
-        <v>17.21848023986443</v>
+        <v>19.32958333394062</v>
       </c>
       <c r="L10">
-        <v>7.255190293601754</v>
+        <v>11.53644792998582</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.92386138420658</v>
+        <v>26.21328973538323</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.5241469333907</v>
+        <v>23.68826327015263</v>
       </c>
       <c r="C11">
-        <v>8.416907679203335</v>
+        <v>4.995235995653557</v>
       </c>
       <c r="D11">
-        <v>2.178962237512665</v>
+        <v>4.048654557087459</v>
       </c>
       <c r="E11">
-        <v>6.3107989280987</v>
+        <v>10.92016221349591</v>
       </c>
       <c r="F11">
-        <v>45.5399381842924</v>
+        <v>56.12307334761731</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.092470370255405</v>
+        <v>10.47745935491517</v>
       </c>
       <c r="K11">
-        <v>17.71491304902896</v>
+        <v>19.40410315043884</v>
       </c>
       <c r="L11">
-        <v>7.343448326441955</v>
+        <v>11.53277721150354</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.85902491926218</v>
+        <v>26.1922754516654</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.76949106779258</v>
+        <v>23.73003279284274</v>
       </c>
       <c r="C12">
-        <v>8.530591083724316</v>
+        <v>5.034992114536621</v>
       </c>
       <c r="D12">
-        <v>2.180993592923747</v>
+        <v>4.047508705461141</v>
       </c>
       <c r="E12">
-        <v>6.319683322179332</v>
+        <v>10.91665588911231</v>
       </c>
       <c r="F12">
-        <v>45.81221097188989</v>
+        <v>56.15336953863756</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.084474665498682</v>
+        <v>10.47344588919453</v>
       </c>
       <c r="K12">
-        <v>17.90175317671103</v>
+        <v>19.43289198901642</v>
       </c>
       <c r="L12">
-        <v>7.37733622470182</v>
+        <v>11.53163527125238</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.83547498098611</v>
+        <v>26.18459859264247</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.71673314819884</v>
+        <v>23.72100725126502</v>
       </c>
       <c r="C13">
-        <v>8.506185925241558</v>
+        <v>5.026447645314939</v>
       </c>
       <c r="D13">
-        <v>2.180561041202206</v>
+        <v>4.047752021425952</v>
       </c>
       <c r="E13">
-        <v>6.317751776973498</v>
+        <v>10.91740348731084</v>
       </c>
       <c r="F13">
-        <v>45.75342243104963</v>
+        <v>56.14678369210668</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.086186327521788</v>
+        <v>10.47430540385769</v>
       </c>
       <c r="K13">
-        <v>17.86156538550325</v>
+        <v>19.42666674826191</v>
       </c>
       <c r="L13">
-        <v>7.370017057507555</v>
+        <v>11.53187018518103</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.8405012491604</v>
+        <v>26.18623945264625</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.54436814961563</v>
+        <v>23.69168623614454</v>
       </c>
       <c r="C14">
-        <v>8.426296007946563</v>
+        <v>4.998514686352642</v>
       </c>
       <c r="D14">
-        <v>2.179131577210856</v>
+        <v>4.048558725769997</v>
       </c>
       <c r="E14">
-        <v>6.311521699720757</v>
+        <v>10.91987034255486</v>
       </c>
       <c r="F14">
-        <v>45.56227088539812</v>
+        <v>56.12553832096043</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.091807898578437</v>
+        <v>10.47712697547642</v>
       </c>
       <c r="K14">
-        <v>17.73030770099267</v>
+        <v>19.40646031093003</v>
       </c>
       <c r="L14">
-        <v>7.346226936054078</v>
+        <v>11.53267829510338</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.85706698709697</v>
+        <v>26.19163824413329</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.43855197778101</v>
+        <v>23.6738138044393</v>
       </c>
       <c r="C15">
-        <v>8.3771297089142</v>
+        <v>4.981353696930436</v>
       </c>
       <c r="D15">
-        <v>2.178241601557338</v>
+        <v>4.049063004677143</v>
       </c>
       <c r="E15">
-        <v>6.307758482043781</v>
+        <v>10.92140348214277</v>
       </c>
       <c r="F15">
-        <v>45.4456220179364</v>
+        <v>56.11270377567252</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.095281522117236</v>
+        <v>10.47886949776773</v>
       </c>
       <c r="K15">
-        <v>17.64975802135561</v>
+        <v>19.39415694632278</v>
       </c>
       <c r="L15">
-        <v>7.331715645852537</v>
+        <v>11.5332055745574</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.86734644960861</v>
+        <v>26.1949817284641</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.82855003222453</v>
+        <v>23.57275718296581</v>
       </c>
       <c r="C16">
-        <v>8.091775823851187</v>
+        <v>4.882254870139279</v>
       </c>
       <c r="D16">
-        <v>2.172923998066004</v>
+        <v>4.052108692134213</v>
       </c>
       <c r="E16">
-        <v>6.28699458152692</v>
+        <v>10.93052865615671</v>
       </c>
       <c r="F16">
-        <v>44.78379414263767</v>
+        <v>56.04190345509063</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.1156478980789</v>
+        <v>10.48907354582315</v>
       </c>
       <c r="K16">
-        <v>17.18587865600658</v>
+        <v>19.3247940129633</v>
       </c>
       <c r="L16">
-        <v>7.249487549462799</v>
+        <v>11.53672256912997</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.92823533228148</v>
+        <v>26.21470235956148</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.45115429819129</v>
+        <v>23.51200138025521</v>
       </c>
       <c r="C17">
-        <v>7.913449165406636</v>
+        <v>4.820819368676361</v>
       </c>
       <c r="D17">
-        <v>2.169470998802558</v>
+        <v>4.054116541594458</v>
       </c>
       <c r="E17">
-        <v>6.27496230871038</v>
+        <v>10.93642984729128</v>
       </c>
       <c r="F17">
-        <v>44.38365308995919</v>
+        <v>56.00093116000959</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.12854955719691</v>
+        <v>10.49552854572483</v>
       </c>
       <c r="K17">
-        <v>16.89930462606229</v>
+        <v>19.28327628831571</v>
       </c>
       <c r="L17">
-        <v>7.19987143410871</v>
+        <v>11.53932264791689</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.96730571795045</v>
+        <v>26.22730042436364</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.23294004792555</v>
+        <v>23.47752055678925</v>
       </c>
       <c r="C18">
-        <v>7.809656236114799</v>
+        <v>4.785261180453179</v>
       </c>
       <c r="D18">
-        <v>2.167416092430698</v>
+        <v>4.055322771098443</v>
       </c>
       <c r="E18">
-        <v>6.268297305944524</v>
+        <v>10.93993562243816</v>
       </c>
       <c r="F18">
-        <v>44.15563999459103</v>
+        <v>55.97827263111927</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.136118768700737</v>
+        <v>10.49931312722738</v>
       </c>
       <c r="K18">
-        <v>16.73375847464095</v>
+        <v>19.25978210564935</v>
       </c>
       <c r="L18">
-        <v>7.171637386750267</v>
+        <v>11.54098095310745</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.99038959765064</v>
+        <v>26.23473027253612</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.15886213987044</v>
+        <v>23.46592651885984</v>
       </c>
       <c r="C19">
-        <v>7.77430147306746</v>
+        <v>4.773184987425741</v>
       </c>
       <c r="D19">
-        <v>2.166708636928853</v>
+        <v>4.055740014522412</v>
       </c>
       <c r="E19">
-        <v>6.266084213379056</v>
+        <v>10.94114179278244</v>
       </c>
       <c r="F19">
-        <v>44.07880418518172</v>
+        <v>55.97075701134191</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.138706968301537</v>
+        <v>10.50060687089892</v>
       </c>
       <c r="K19">
-        <v>16.67758643611641</v>
+        <v>19.25189415068576</v>
       </c>
       <c r="L19">
-        <v>7.162129977650995</v>
+        <v>11.54157040602644</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.9983086892398</v>
+        <v>26.23727745404485</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.49144792406836</v>
+        <v>23.51842108379944</v>
       </c>
       <c r="C20">
-        <v>7.932558555127827</v>
+        <v>4.827382587399924</v>
       </c>
       <c r="D20">
-        <v>2.169845729511338</v>
+        <v>4.05389748918328</v>
       </c>
       <c r="E20">
-        <v>6.276216624494325</v>
+        <v>10.93579011198755</v>
       </c>
       <c r="F20">
-        <v>44.42602717498778</v>
+        <v>56.00519885978161</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.127160755151371</v>
+        <v>10.49483396791953</v>
       </c>
       <c r="K20">
-        <v>16.9298855324379</v>
+        <v>19.28765612658341</v>
       </c>
       <c r="L20">
-        <v>7.20512170104151</v>
+        <v>11.53902901907137</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.9630828842963</v>
+        <v>26.22594031880381</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.59504550741722</v>
+        <v>23.70028033803947</v>
       </c>
       <c r="C21">
-        <v>8.449809706750591</v>
+        <v>5.006730021583079</v>
       </c>
       <c r="D21">
-        <v>2.179554451031146</v>
+        <v>4.048319662808194</v>
       </c>
       <c r="E21">
-        <v>6.313340581479267</v>
+        <v>10.91914115849835</v>
       </c>
       <c r="F21">
-        <v>45.61832551381736</v>
+        <v>56.13174134690485</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.09015039518863</v>
+        <v>10.47629524701413</v>
       </c>
       <c r="K21">
-        <v>17.76889269127845</v>
+        <v>19.4123801133565</v>
       </c>
       <c r="L21">
-        <v>7.353201984524158</v>
+        <v>11.532434205827</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.85217350151394</v>
+        <v>26.1900448672641</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.30572618712366</v>
+        <v>23.82307808317368</v>
       </c>
       <c r="C22">
-        <v>8.77744529134314</v>
+        <v>5.121686163110381</v>
       </c>
       <c r="D22">
-        <v>2.185259188063489</v>
+        <v>4.045128840528029</v>
       </c>
       <c r="E22">
-        <v>6.339960153734685</v>
+        <v>10.90925051102123</v>
       </c>
       <c r="F22">
-        <v>46.41706389614151</v>
+        <v>56.22245801346135</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.067312397207816</v>
+        <v>10.46481626518693</v>
       </c>
       <c r="K22">
-        <v>18.31053698447599</v>
+        <v>19.49720679468905</v>
       </c>
       <c r="L22">
-        <v>7.452702677567374</v>
+        <v>11.52956979682734</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.7855634904086</v>
+        <v>26.16822181542907</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.92740156612244</v>
+        <v>23.75718744640092</v>
       </c>
       <c r="C23">
-        <v>8.603508479049912</v>
+        <v>5.060551194476958</v>
       </c>
       <c r="D23">
-        <v>2.182274401783404</v>
+        <v>4.046790383085196</v>
       </c>
       <c r="E23">
-        <v>6.32553307684818</v>
+        <v>10.9144388641244</v>
       </c>
       <c r="F23">
-        <v>45.98894996254636</v>
+        <v>56.17331112558728</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.07937644919829</v>
+        <v>10.4708846378186</v>
       </c>
       <c r="K23">
-        <v>18.02207322613978</v>
+        <v>19.45163622647935</v>
       </c>
       <c r="L23">
-        <v>7.399347015484701</v>
+        <v>11.53096651889935</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.82055460385818</v>
+        <v>26.17971941950323</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.47323504666598</v>
+        <v>23.51551733670434</v>
       </c>
       <c r="C24">
-        <v>7.923923162710493</v>
+        <v>4.824416094629944</v>
       </c>
       <c r="D24">
-        <v>2.169676530650648</v>
+        <v>4.053996361127751</v>
       </c>
       <c r="E24">
-        <v>6.275648762684047</v>
+        <v>10.93607898399508</v>
       </c>
       <c r="F24">
-        <v>44.40686352232376</v>
+        <v>56.00326663791253</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.127788159792705</v>
+        <v>10.49514775752357</v>
       </c>
       <c r="K24">
-        <v>16.91606236390726</v>
+        <v>19.2856748325651</v>
       </c>
       <c r="L24">
-        <v>7.202747149333402</v>
+        <v>11.53916125939796</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.96499009520782</v>
+        <v>26.22655463984544</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.86146289269958</v>
+        <v>23.27268844527934</v>
       </c>
       <c r="C25">
-        <v>7.143850469885709</v>
+        <v>4.561423169918421</v>
       </c>
       <c r="D25">
-        <v>2.153472268337858</v>
+        <v>4.063734655670963</v>
       </c>
       <c r="E25">
-        <v>6.231572028293219</v>
+        <v>10.96368849974102</v>
       </c>
       <c r="F25">
-        <v>42.78195105345318</v>
+        <v>55.85457453530039</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.185674258756099</v>
+        <v>10.52406749867214</v>
       </c>
       <c r="K25">
-        <v>15.69614078222805</v>
+        <v>19.12146703894784</v>
       </c>
       <c r="L25">
-        <v>7.002304131226516</v>
+        <v>11.55422676585059</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.14398068575614</v>
+        <v>26.28410005372527</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_55/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.11014822181284</v>
+        <v>18.64173273579063</v>
       </c>
       <c r="C2">
-        <v>4.362399951498389</v>
+        <v>6.526677680413108</v>
       </c>
       <c r="D2">
-        <v>4.072610582564346</v>
+        <v>2.139438377898576</v>
       </c>
       <c r="E2">
-        <v>10.98770551718587</v>
+        <v>6.207073003677019</v>
       </c>
       <c r="F2">
-        <v>55.77520609594342</v>
+        <v>41.65390259416535</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.54774182860877</v>
+        <v>6.233051644465755</v>
       </c>
       <c r="K2">
-        <v>19.0138559828884</v>
+        <v>14.77810408946215</v>
       </c>
       <c r="L2">
-        <v>11.57069076593228</v>
+        <v>6.864669939229737</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>26.33251820137313</v>
+        <v>18.29379584521674</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.01054385223804</v>
+        <v>17.79796031180289</v>
       </c>
       <c r="C3">
-        <v>4.225191698887947</v>
+        <v>6.080673555339422</v>
       </c>
       <c r="D3">
-        <v>4.079697481276648</v>
+        <v>2.128689981341776</v>
       </c>
       <c r="E3">
-        <v>11.00629192790168</v>
+        <v>6.195233684659855</v>
       </c>
       <c r="F3">
-        <v>55.7402908538503</v>
+        <v>40.93144148890508</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.5652801806097</v>
+        <v>6.268078262819195</v>
       </c>
       <c r="K3">
-        <v>18.94947017374801</v>
+        <v>14.14623665520965</v>
       </c>
       <c r="L3">
-        <v>11.5852058515645</v>
+        <v>6.777600288610497</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>26.36910687975005</v>
+        <v>18.40575436275647</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.95471465579007</v>
+        <v>17.2729823482693</v>
       </c>
       <c r="C4">
-        <v>4.140185687579641</v>
+        <v>5.792838768071114</v>
       </c>
       <c r="D4">
-        <v>4.084579972641775</v>
+        <v>2.121504986057974</v>
       </c>
       <c r="E4">
-        <v>11.01884644128617</v>
+        <v>6.190250343283436</v>
       </c>
       <c r="F4">
-        <v>55.72818307309109</v>
+        <v>40.5084004790974</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.57678869411716</v>
+        <v>6.291010724973995</v>
       </c>
       <c r="K4">
-        <v>18.91422504216162</v>
+        <v>13.75466379689439</v>
       </c>
       <c r="L4">
-        <v>11.59577601372099</v>
+        <v>6.727200212399185</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>26.39343557131997</v>
+        <v>18.47940475098164</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.93332124749067</v>
+        <v>17.05759719338574</v>
       </c>
       <c r="C5">
-        <v>4.105417302812604</v>
+        <v>5.671986498689625</v>
       </c>
       <c r="D5">
-        <v>4.086703563336673</v>
+        <v>2.118433604274764</v>
       </c>
       <c r="E5">
-        <v>11.02425022335494</v>
+        <v>6.188785219527595</v>
       </c>
       <c r="F5">
-        <v>55.7255980272905</v>
+        <v>40.3411507541047</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.58166498311184</v>
+        <v>6.300712621558328</v>
       </c>
       <c r="K5">
-        <v>18.90095104056489</v>
+        <v>13.59439945465597</v>
       </c>
       <c r="L5">
-        <v>11.60050059881648</v>
+        <v>6.707431373358433</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>26.40381832645444</v>
+        <v>18.51061981608534</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.92985135312854</v>
+        <v>17.02175399873839</v>
       </c>
       <c r="C6">
-        <v>4.099638247599882</v>
+        <v>5.651703120187941</v>
       </c>
       <c r="D6">
-        <v>4.087064284519724</v>
+        <v>2.117915051564885</v>
       </c>
       <c r="E6">
-        <v>11.02516490779655</v>
+        <v>6.188575830364329</v>
       </c>
       <c r="F6">
-        <v>55.72531071282157</v>
+        <v>40.3136888130438</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.58248596237768</v>
+        <v>6.302345109945681</v>
       </c>
       <c r="K6">
-        <v>18.89881293580175</v>
+        <v>13.56775240556368</v>
       </c>
       <c r="L6">
-        <v>11.60131031496336</v>
+        <v>6.704195231438797</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>26.40557068202578</v>
+        <v>18.51587476395265</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.95442061871004</v>
+        <v>17.27008306557152</v>
       </c>
       <c r="C7">
-        <v>4.139717219775897</v>
+        <v>5.791223365798058</v>
       </c>
       <c r="D7">
-        <v>4.08460806930987</v>
+        <v>2.121464140089016</v>
       </c>
       <c r="E7">
-        <v>11.01891815302656</v>
+        <v>6.190228306050706</v>
       </c>
       <c r="F7">
-        <v>55.72813869669325</v>
+        <v>40.50612410544333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.57685370185924</v>
+        <v>6.291140126019402</v>
       </c>
       <c r="K7">
-        <v>18.91404160353057</v>
+        <v>13.75250493140339</v>
       </c>
       <c r="L7">
-        <v>11.59583804174437</v>
+        <v>6.72693048770673</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>26.39357369926628</v>
+        <v>18.47982090196343</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.07470985126999</v>
+        <v>18.35238793138825</v>
       </c>
       <c r="C8">
-        <v>4.315284923833558</v>
+        <v>6.375772878678926</v>
       </c>
       <c r="D8">
-        <v>4.074944146152868</v>
+        <v>2.135856095002585</v>
       </c>
       <c r="E8">
-        <v>10.99387728485612</v>
+        <v>6.202510768916712</v>
       </c>
       <c r="F8">
-        <v>55.76123281552786</v>
+        <v>41.400518406015</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.55363574196723</v>
+        <v>6.244831689468879</v>
       </c>
       <c r="K8">
-        <v>18.99077240310506</v>
+        <v>14.56110177438958</v>
       </c>
       <c r="L8">
-        <v>11.57535166643915</v>
+        <v>6.834013168810012</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>26.34474736712688</v>
+        <v>18.33136040824607</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.3520190219868</v>
+        <v>20.40987430059007</v>
       </c>
       <c r="C9">
-        <v>4.650974767891701</v>
+        <v>7.413121107897763</v>
       </c>
       <c r="D9">
-        <v>4.060190355806073</v>
+        <v>2.159267173390428</v>
       </c>
       <c r="E9">
-        <v>10.95381647650092</v>
+        <v>6.245156765306946</v>
       </c>
       <c r="F9">
-        <v>55.89999844643911</v>
+        <v>43.3185889753268</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.51395716349023</v>
+        <v>6.165429281413105</v>
       </c>
       <c r="K9">
-        <v>19.17475127010964</v>
+        <v>16.11043333306278</v>
       </c>
       <c r="L9">
-        <v>11.54831855604573</v>
+        <v>7.068277063531037</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>26.26377667652612</v>
+        <v>18.08076879801472</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.57975211656572</v>
+        <v>21.87145644241455</v>
       </c>
       <c r="C10">
-        <v>4.889233984693912</v>
+        <v>8.111959826540001</v>
       </c>
       <c r="D10">
-        <v>4.051886533502564</v>
+        <v>2.173308588622501</v>
       </c>
       <c r="E10">
-        <v>10.92987039635468</v>
+        <v>6.288402453627495</v>
       </c>
       <c r="F10">
-        <v>56.0467014494914</v>
+        <v>44.82974397315358</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.48834671072442</v>
+        <v>6.114195942702364</v>
       </c>
       <c r="K10">
-        <v>19.32958333394062</v>
+        <v>17.21848023986439</v>
       </c>
       <c r="L10">
-        <v>11.53644792998582</v>
+        <v>7.255190293601681</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>26.21328973538323</v>
+        <v>17.92386138420654</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.68826327015263</v>
+        <v>22.52414693339072</v>
       </c>
       <c r="C11">
-        <v>4.995235995653557</v>
+        <v>8.416907679203456</v>
       </c>
       <c r="D11">
-        <v>4.048654557087459</v>
+        <v>2.178962237512729</v>
       </c>
       <c r="E11">
-        <v>10.92016221349591</v>
+        <v>6.310798928098746</v>
       </c>
       <c r="F11">
-        <v>56.12307334761731</v>
+        <v>45.53993818429244</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.47745935491517</v>
+        <v>6.092470370255496</v>
       </c>
       <c r="K11">
-        <v>19.40410315043884</v>
+        <v>17.71491304902895</v>
       </c>
       <c r="L11">
-        <v>11.53277721150354</v>
+        <v>7.343448326441945</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>26.1922754516654</v>
+        <v>17.85902491926226</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.73003279284274</v>
+        <v>22.76949106779254</v>
       </c>
       <c r="C12">
-        <v>5.034992114536621</v>
+        <v>8.530591083724291</v>
       </c>
       <c r="D12">
-        <v>4.047508705461141</v>
+        <v>2.180993592923686</v>
       </c>
       <c r="E12">
-        <v>10.91665588911231</v>
+        <v>6.319683322179285</v>
       </c>
       <c r="F12">
-        <v>56.15336953863756</v>
+        <v>45.81221097188967</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.47344588919453</v>
+        <v>6.084474665498623</v>
       </c>
       <c r="K12">
-        <v>19.43289198901642</v>
+        <v>17.901753176711</v>
       </c>
       <c r="L12">
-        <v>11.53163527125238</v>
+        <v>7.377336224701829</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>26.18459859264247</v>
+        <v>17.83547498098597</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.72100725126502</v>
+        <v>22.71673314819882</v>
       </c>
       <c r="C13">
-        <v>5.026447645314939</v>
+        <v>8.506185925241619</v>
       </c>
       <c r="D13">
-        <v>4.047752021425952</v>
+        <v>2.18056104120221</v>
       </c>
       <c r="E13">
-        <v>10.91740348731084</v>
+        <v>6.317751776973505</v>
       </c>
       <c r="F13">
-        <v>56.14678369210668</v>
+        <v>45.75342243104958</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.47430540385769</v>
+        <v>6.086186327521789</v>
       </c>
       <c r="K13">
-        <v>19.42666674826191</v>
+        <v>17.86156538550325</v>
       </c>
       <c r="L13">
-        <v>11.53187018518103</v>
+        <v>7.370017057507547</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>26.18623945264625</v>
+        <v>17.84050124916035</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.69168623614454</v>
+        <v>22.54436814961561</v>
       </c>
       <c r="C14">
-        <v>4.998514686352642</v>
+        <v>8.426296007946418</v>
       </c>
       <c r="D14">
-        <v>4.048558725769997</v>
+        <v>2.179131577211078</v>
       </c>
       <c r="E14">
-        <v>10.91987034255486</v>
+        <v>6.311521699720562</v>
       </c>
       <c r="F14">
-        <v>56.12553832096043</v>
+        <v>45.56227088539793</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.47712697547642</v>
+        <v>6.091807898578422</v>
       </c>
       <c r="K14">
-        <v>19.40646031093003</v>
+        <v>17.73030770099266</v>
       </c>
       <c r="L14">
-        <v>11.53267829510338</v>
+        <v>7.346226936054048</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>26.19163824413329</v>
+        <v>17.85706698709689</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.6738138044393</v>
+        <v>22.43855197778099</v>
       </c>
       <c r="C15">
-        <v>4.981353696930436</v>
+        <v>8.377129708914104</v>
       </c>
       <c r="D15">
-        <v>4.049063004677143</v>
+        <v>2.178241601557523</v>
       </c>
       <c r="E15">
-        <v>10.92140348214277</v>
+        <v>6.307758482043741</v>
       </c>
       <c r="F15">
-        <v>56.11270377567252</v>
+        <v>45.44562201793628</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.47886949776773</v>
+        <v>6.09528152211726</v>
       </c>
       <c r="K15">
-        <v>19.39415694632278</v>
+        <v>17.64975802135561</v>
       </c>
       <c r="L15">
-        <v>11.5332055745574</v>
+        <v>7.331715645852556</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>26.1949817284641</v>
+        <v>17.8673464496085</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.57275718296581</v>
+        <v>21.8285500322245</v>
       </c>
       <c r="C16">
-        <v>4.882254870139279</v>
+        <v>8.091775823851268</v>
       </c>
       <c r="D16">
-        <v>4.052108692134213</v>
+        <v>2.172923998066122</v>
       </c>
       <c r="E16">
-        <v>10.93052865615671</v>
+        <v>6.286994581526915</v>
       </c>
       <c r="F16">
-        <v>56.04190345509063</v>
+        <v>44.78379414263761</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.48907354582315</v>
+        <v>6.115647898078956</v>
       </c>
       <c r="K16">
-        <v>19.3247940129633</v>
+        <v>17.18587865600658</v>
       </c>
       <c r="L16">
-        <v>11.53672256912997</v>
+        <v>7.249487549462742</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>26.21470235956148</v>
+        <v>17.92823533228144</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.51200138025521</v>
+        <v>21.4511542981913</v>
       </c>
       <c r="C17">
-        <v>4.820819368676361</v>
+        <v>7.91344916540673</v>
       </c>
       <c r="D17">
-        <v>4.054116541594458</v>
+        <v>2.169470998802814</v>
       </c>
       <c r="E17">
-        <v>10.93642984729128</v>
+        <v>6.274962308710329</v>
       </c>
       <c r="F17">
-        <v>56.00093116000959</v>
+        <v>44.38365308995907</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.49552854572483</v>
+        <v>6.128549557196997</v>
       </c>
       <c r="K17">
-        <v>19.28327628831571</v>
+        <v>16.89930462606229</v>
       </c>
       <c r="L17">
-        <v>11.53932264791689</v>
+        <v>7.199871434108641</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>26.22730042436364</v>
+        <v>17.96730571795044</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.47752055678925</v>
+        <v>21.23294004792553</v>
       </c>
       <c r="C18">
-        <v>4.785261180453179</v>
+        <v>7.809656236114829</v>
       </c>
       <c r="D18">
-        <v>4.055322771098443</v>
+        <v>2.167416092430644</v>
       </c>
       <c r="E18">
-        <v>10.93993562243816</v>
+        <v>6.268297305944562</v>
       </c>
       <c r="F18">
-        <v>55.97827263111927</v>
+        <v>44.15563999459103</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.49931312722738</v>
+        <v>6.136118768700731</v>
       </c>
       <c r="K18">
-        <v>19.25978210564935</v>
+        <v>16.73375847464094</v>
       </c>
       <c r="L18">
-        <v>11.54098095310745</v>
+        <v>7.1716373867503</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>26.23473027253612</v>
+        <v>17.99038959765066</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.46592651885984</v>
+        <v>21.15886213987046</v>
       </c>
       <c r="C19">
-        <v>4.773184987425741</v>
+        <v>7.774301473067526</v>
       </c>
       <c r="D19">
-        <v>4.055740014522412</v>
+        <v>2.166708636928648</v>
       </c>
       <c r="E19">
-        <v>10.94114179278244</v>
+        <v>6.266084213379254</v>
       </c>
       <c r="F19">
-        <v>55.97075701134191</v>
+        <v>44.07880418518182</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.50060687089892</v>
+        <v>6.138706968301663</v>
       </c>
       <c r="K19">
-        <v>19.25189415068576</v>
+        <v>16.67758643611644</v>
       </c>
       <c r="L19">
-        <v>11.54157040602644</v>
+        <v>7.162129977651125</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>26.23727745404485</v>
+        <v>17.9983086892398</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.51842108379944</v>
+        <v>21.49144792406836</v>
       </c>
       <c r="C20">
-        <v>4.827382587399924</v>
+        <v>7.932558555127928</v>
       </c>
       <c r="D20">
-        <v>4.05389748918328</v>
+        <v>2.169845729511155</v>
       </c>
       <c r="E20">
-        <v>10.93579011198755</v>
+        <v>6.276216624494441</v>
       </c>
       <c r="F20">
-        <v>56.00519885978161</v>
+        <v>44.42602717498768</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.49483396791953</v>
+        <v>6.127160755151322</v>
       </c>
       <c r="K20">
-        <v>19.28765612658341</v>
+        <v>16.92988553243788</v>
       </c>
       <c r="L20">
-        <v>11.53902901907137</v>
+        <v>7.205121701041501</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>26.22594031880381</v>
+        <v>17.96308288429619</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.70028033803947</v>
+        <v>22.5950455074172</v>
       </c>
       <c r="C21">
-        <v>5.006730021583079</v>
+        <v>8.449809706750884</v>
       </c>
       <c r="D21">
-        <v>4.048319662808194</v>
+        <v>2.179554451031139</v>
       </c>
       <c r="E21">
-        <v>10.91914115849835</v>
+        <v>6.313340581479274</v>
       </c>
       <c r="F21">
-        <v>56.13174134690485</v>
+        <v>45.6183255138171</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.47629524701413</v>
+        <v>6.090150395188607</v>
       </c>
       <c r="K21">
-        <v>19.4123801133565</v>
+        <v>17.76889269127843</v>
       </c>
       <c r="L21">
-        <v>11.532434205827</v>
+        <v>7.353201984524131</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>26.1900448672641</v>
+        <v>17.85217350151378</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.82307808317368</v>
+        <v>23.30572618712369</v>
       </c>
       <c r="C22">
-        <v>5.121686163110381</v>
+        <v>8.777445291343019</v>
       </c>
       <c r="D22">
-        <v>4.045128840528029</v>
+        <v>2.185259188063654</v>
       </c>
       <c r="E22">
-        <v>10.90925051102123</v>
+        <v>6.339960153734797</v>
       </c>
       <c r="F22">
-        <v>56.22245801346135</v>
+        <v>46.41706389614158</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.46481626518693</v>
+        <v>6.06731239720794</v>
       </c>
       <c r="K22">
-        <v>19.49720679468905</v>
+        <v>18.31053698447602</v>
       </c>
       <c r="L22">
-        <v>11.52956979682734</v>
+        <v>7.452702677567477</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>26.16822181542907</v>
+        <v>17.78556349040859</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.75718744640092</v>
+        <v>22.92740156612242</v>
       </c>
       <c r="C23">
-        <v>5.060551194476958</v>
+        <v>8.603508479049996</v>
       </c>
       <c r="D23">
-        <v>4.046790383085196</v>
+        <v>2.182274401783468</v>
       </c>
       <c r="E23">
-        <v>10.9144388641244</v>
+        <v>6.325533076848068</v>
       </c>
       <c r="F23">
-        <v>56.17331112558728</v>
+        <v>45.98894996254623</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.4708846378186</v>
+        <v>6.079376449198282</v>
       </c>
       <c r="K23">
-        <v>19.45163622647935</v>
+        <v>18.02207322613977</v>
       </c>
       <c r="L23">
-        <v>11.53096651889935</v>
+        <v>7.399347015484647</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>26.17971941950323</v>
+        <v>17.82055460385818</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.51551733670434</v>
+        <v>21.473235046666</v>
       </c>
       <c r="C24">
-        <v>4.824416094629944</v>
+        <v>7.923923162710332</v>
       </c>
       <c r="D24">
-        <v>4.053996361127751</v>
+        <v>2.169676530650709</v>
       </c>
       <c r="E24">
-        <v>10.93607898399508</v>
+        <v>6.275648762684104</v>
       </c>
       <c r="F24">
-        <v>56.00326663791253</v>
+        <v>44.40686352232368</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.49514775752357</v>
+        <v>6.127788159792737</v>
       </c>
       <c r="K24">
-        <v>19.2856748325651</v>
+        <v>16.91606236390725</v>
       </c>
       <c r="L24">
-        <v>11.53916125939796</v>
+        <v>7.202747149333537</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>26.22655463984544</v>
+        <v>17.96499009520779</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.27268844527934</v>
+        <v>19.86146289269955</v>
       </c>
       <c r="C25">
-        <v>4.561423169918421</v>
+        <v>7.143850469885618</v>
       </c>
       <c r="D25">
-        <v>4.063734655670963</v>
+        <v>2.153472268338049</v>
       </c>
       <c r="E25">
-        <v>10.96368849974102</v>
+        <v>6.231572028293218</v>
       </c>
       <c r="F25">
-        <v>55.85457453530039</v>
+        <v>42.78195105345311</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.52406749867214</v>
+        <v>6.185674258756156</v>
       </c>
       <c r="K25">
-        <v>19.12146703894784</v>
+        <v>15.69614078222802</v>
       </c>
       <c r="L25">
-        <v>11.55422676585059</v>
+        <v>7.00230413122655</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>26.28410005372527</v>
+        <v>18.14398068575618</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,988 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.64173273579063</v>
+        <v>23.67131869529199</v>
       </c>
       <c r="C2">
-        <v>6.526677680413108</v>
+        <v>17.88056765976452</v>
       </c>
       <c r="D2">
-        <v>2.139438377898576</v>
+        <v>4.893074027814894</v>
       </c>
       <c r="E2">
-        <v>6.207073003677019</v>
+        <v>7.412114508374165</v>
       </c>
       <c r="F2">
-        <v>41.65390259416535</v>
+        <v>34.72142155912915</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2.274228518122047</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.873063448946601</v>
       </c>
       <c r="J2">
-        <v>6.233051644465755</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>14.77810408946215</v>
+        <v>23.17231714683197</v>
       </c>
       <c r="L2">
-        <v>6.864669939229737</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.29379584521674</v>
+        <v>6.816238994923737</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.15804565802634</v>
+      </c>
+      <c r="P2">
+        <v>13.66159777961829</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.79796031180289</v>
+        <v>22.16013619055973</v>
       </c>
       <c r="C3">
-        <v>6.080673555339422</v>
+        <v>16.64004258310273</v>
       </c>
       <c r="D3">
-        <v>2.128689981341776</v>
+        <v>4.889923922260311</v>
       </c>
       <c r="E3">
-        <v>6.195233684659855</v>
+        <v>7.106012256698151</v>
       </c>
       <c r="F3">
-        <v>40.93144148890508</v>
+        <v>33.21757685988448</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2.564858099359386</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.139336740355533</v>
       </c>
       <c r="J3">
-        <v>6.268078262819195</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>14.14623665520965</v>
+        <v>22.59013994042328</v>
       </c>
       <c r="L3">
-        <v>6.777600288610497</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40575436275647</v>
+        <v>6.598790617653044</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.46855595581646</v>
+      </c>
+      <c r="P3">
+        <v>13.79194893239012</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.2729823482693</v>
+        <v>21.18009468676914</v>
       </c>
       <c r="C4">
-        <v>5.792838768071114</v>
+        <v>15.83902952240541</v>
       </c>
       <c r="D4">
-        <v>2.121504986057974</v>
+        <v>4.886745639774091</v>
       </c>
       <c r="E4">
-        <v>6.190250343283436</v>
+        <v>6.912874175538146</v>
       </c>
       <c r="F4">
-        <v>40.5084004790974</v>
+        <v>32.27058017260786</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2.748777254057742</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.308620493321061</v>
       </c>
       <c r="J4">
-        <v>6.291010724973995</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>13.75466379689439</v>
+        <v>22.22841554683334</v>
       </c>
       <c r="L4">
-        <v>6.727200212399185</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.47940475098164</v>
+        <v>6.461681051701997</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.02812561325979</v>
+      </c>
+      <c r="P4">
+        <v>13.87224741555253</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.05759719338574</v>
+        <v>20.75924104693236</v>
       </c>
       <c r="C5">
-        <v>5.671986498689625</v>
+        <v>15.50669338567445</v>
       </c>
       <c r="D5">
-        <v>2.118433604274764</v>
+        <v>4.883838763560464</v>
       </c>
       <c r="E5">
-        <v>6.188785219527595</v>
+        <v>6.83251233613443</v>
       </c>
       <c r="F5">
-        <v>40.3411507541047</v>
+        <v>31.86192617368957</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2.82570567934731</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.382056567412806</v>
       </c>
       <c r="J5">
-        <v>6.300712621558328</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>13.59439945465597</v>
+        <v>22.06741909202097</v>
       </c>
       <c r="L5">
-        <v>6.707431373358433</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.51061981608534</v>
+        <v>6.405251898473502</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.84177420187411</v>
+      </c>
+      <c r="P5">
+        <v>13.90261593782172</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.02175399873839</v>
+        <v>20.67825623667371</v>
       </c>
       <c r="C6">
-        <v>5.651703120187941</v>
+        <v>15.45588132126465</v>
       </c>
       <c r="D6">
-        <v>2.117915051564885</v>
+        <v>4.881749488188959</v>
       </c>
       <c r="E6">
-        <v>6.188575830364329</v>
+        <v>6.818705080922101</v>
       </c>
       <c r="F6">
-        <v>40.3136888130438</v>
+        <v>31.77265764953236</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2.839256860869714</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.398139144467561</v>
       </c>
       <c r="J6">
-        <v>6.302345109945681</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>13.56775240556368</v>
+        <v>22.02517680849302</v>
       </c>
       <c r="L6">
-        <v>6.704195231438797</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.51587476395265</v>
+        <v>6.396218538008479</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.80723297147889</v>
+      </c>
+      <c r="P6">
+        <v>13.90470070026667</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.27008306557152</v>
+        <v>21.14692152441371</v>
       </c>
       <c r="C7">
-        <v>5.791223365798058</v>
+        <v>15.84782107579729</v>
       </c>
       <c r="D7">
-        <v>2.121464140089016</v>
+        <v>4.882390330511931</v>
       </c>
       <c r="E7">
-        <v>6.190228306050706</v>
+        <v>6.910770295633371</v>
       </c>
       <c r="F7">
-        <v>40.50612410544333</v>
+        <v>32.20831926356225</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2.751674847434943</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.319748065506939</v>
       </c>
       <c r="J7">
-        <v>6.291140126019402</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>13.75250493140339</v>
+        <v>22.1843740792961</v>
       </c>
       <c r="L7">
-        <v>6.72693048770673</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.47982090196343</v>
+        <v>6.461979899982179</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.01661684793788</v>
+      </c>
+      <c r="P7">
+        <v>13.86461334754086</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.35238793138825</v>
+        <v>23.12730512161888</v>
       </c>
       <c r="C8">
-        <v>6.375772878678926</v>
+        <v>17.47693683449753</v>
       </c>
       <c r="D8">
-        <v>2.135856095002585</v>
+        <v>4.886645591203292</v>
       </c>
       <c r="E8">
-        <v>6.202510768916712</v>
+        <v>7.306325708076425</v>
       </c>
       <c r="F8">
-        <v>41.400518406015</v>
+        <v>34.13671872810479</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2.375706173146311</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.977045531106148</v>
       </c>
       <c r="J8">
-        <v>6.244831689468879</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>14.56110177438958</v>
+        <v>22.91874794637769</v>
       </c>
       <c r="L8">
-        <v>6.834013168810012</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.33136040824607</v>
+        <v>6.743403228189819</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.9126625191723</v>
+      </c>
+      <c r="P8">
+        <v>13.69606968586695</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.40987430059007</v>
+        <v>26.63955464952658</v>
       </c>
       <c r="C9">
-        <v>7.413121107897763</v>
+        <v>20.34361673163284</v>
       </c>
       <c r="D9">
-        <v>2.159267173390428</v>
+        <v>4.892400229243001</v>
       </c>
       <c r="E9">
-        <v>6.245156765306946</v>
+        <v>8.044533769387801</v>
       </c>
       <c r="F9">
-        <v>43.3185889753268</v>
+        <v>37.80936525707516</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1.676841067358752</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.619695314365856</v>
       </c>
       <c r="J9">
-        <v>6.165429281413105</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>16.11043333306278</v>
+        <v>24.39232007655622</v>
       </c>
       <c r="L9">
-        <v>7.068277063531037</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.08076879801472</v>
+        <v>7.26372762875204</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.54345097306441</v>
+      </c>
+      <c r="P9">
+        <v>13.38115500011417</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.87145644241455</v>
+        <v>28.87240159127267</v>
       </c>
       <c r="C10">
-        <v>8.111959826540001</v>
+        <v>22.28261947307916</v>
       </c>
       <c r="D10">
-        <v>2.173308588622501</v>
+        <v>4.869180418496845</v>
       </c>
       <c r="E10">
-        <v>6.288402453627495</v>
+        <v>8.610283035297581</v>
       </c>
       <c r="F10">
-        <v>44.82974397315358</v>
+        <v>40.11499219185512</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1.914113429287704</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.047906183770628</v>
       </c>
       <c r="J10">
-        <v>6.114195942702364</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>17.21848023986439</v>
+        <v>25.25694767822046</v>
       </c>
       <c r="L10">
-        <v>7.255190293601681</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.92386138420654</v>
+        <v>7.525089727878405</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.53210720493468</v>
+      </c>
+      <c r="P10">
+        <v>13.11025656545882</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.52414693339072</v>
+        <v>29.11548664425095</v>
       </c>
       <c r="C11">
-        <v>8.416907679203456</v>
+        <v>23.21068261434472</v>
       </c>
       <c r="D11">
-        <v>2.178962237512729</v>
+        <v>4.713199307110664</v>
       </c>
       <c r="E11">
-        <v>6.310798928098746</v>
+        <v>9.379298785986787</v>
       </c>
       <c r="F11">
-        <v>45.53993818429244</v>
+        <v>39.09756054541458</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2.851532371702745</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.164687579541022</v>
       </c>
       <c r="J11">
-        <v>6.092470370255496</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>17.71491304902895</v>
+        <v>24.11716628288598</v>
       </c>
       <c r="L11">
-        <v>7.343448326441945</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.85902491926226</v>
+        <v>6.807748143502825</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.97142324366972</v>
+      </c>
+      <c r="P11">
+        <v>12.69511296991924</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.76949106779254</v>
+        <v>28.88274606458458</v>
       </c>
       <c r="C12">
-        <v>8.530591083724291</v>
+        <v>23.58338396997805</v>
       </c>
       <c r="D12">
-        <v>2.180993592923686</v>
+        <v>4.626401300690667</v>
       </c>
       <c r="E12">
-        <v>6.319683322179285</v>
+        <v>10.0711160953775</v>
       </c>
       <c r="F12">
-        <v>45.81221097188967</v>
+        <v>37.80736920009103</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.130407101973566</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.176084816238563</v>
       </c>
       <c r="J12">
-        <v>6.084474665498623</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>17.901753176711</v>
+        <v>23.01878091848265</v>
       </c>
       <c r="L12">
-        <v>7.377336224701829</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.83547498098597</v>
+        <v>6.217950088836897</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.29335813585739</v>
+      </c>
+      <c r="P12">
+        <v>12.45530834675422</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.71673314819882</v>
+        <v>28.22250476500017</v>
       </c>
       <c r="C13">
-        <v>8.506185925241619</v>
+        <v>23.57744958037975</v>
       </c>
       <c r="D13">
-        <v>2.18056104120221</v>
+        <v>4.582333249221178</v>
       </c>
       <c r="E13">
-        <v>6.317751776973505</v>
+        <v>10.72720569941994</v>
       </c>
       <c r="F13">
-        <v>45.75342243104958</v>
+        <v>36.11688305272897</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.456264683055171</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.109626105385184</v>
       </c>
       <c r="J13">
-        <v>6.086186327521789</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>17.86156538550325</v>
+        <v>21.8117647504598</v>
       </c>
       <c r="L13">
-        <v>7.370017057507547</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.84050124916035</v>
+        <v>5.707622060560503</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.4555633572043</v>
+      </c>
+      <c r="P13">
+        <v>12.32591014983486</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.54436814961561</v>
+        <v>27.55118619591438</v>
       </c>
       <c r="C14">
-        <v>8.426296007946418</v>
+        <v>23.40588550636957</v>
       </c>
       <c r="D14">
-        <v>2.179131577211078</v>
+        <v>4.575318552324571</v>
       </c>
       <c r="E14">
-        <v>6.311521699720562</v>
+        <v>11.18312567944961</v>
       </c>
       <c r="F14">
-        <v>45.56227088539793</v>
+        <v>34.71892359884508</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.468706620923963</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.029185697827266</v>
       </c>
       <c r="J14">
-        <v>6.091807898578422</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>17.73030770099266</v>
+        <v>20.90384280838576</v>
       </c>
       <c r="L14">
-        <v>7.346226936054048</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.85706698709689</v>
+        <v>5.414142099658072</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.7853888299663</v>
+      </c>
+      <c r="P14">
+        <v>12.29057444524832</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.43855197778099</v>
+        <v>27.2851430040468</v>
       </c>
       <c r="C15">
-        <v>8.377129708914104</v>
+        <v>23.286630660341</v>
       </c>
       <c r="D15">
-        <v>2.178241601557523</v>
+        <v>4.578108357684556</v>
       </c>
       <c r="E15">
-        <v>6.307758482043741</v>
+        <v>11.26966256888326</v>
       </c>
       <c r="F15">
-        <v>45.44562201793628</v>
+        <v>34.27299482759857</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.710146535584408</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.993465226134361</v>
       </c>
       <c r="J15">
-        <v>6.09528152211726</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>17.64975802135561</v>
+        <v>20.64714032047105</v>
       </c>
       <c r="L15">
-        <v>7.331715645852556</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.8673464496085</v>
+        <v>5.350164780552512</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.58464177493702</v>
+      </c>
+      <c r="P15">
+        <v>12.29889341042932</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.8285500322245</v>
+        <v>26.40425419188042</v>
       </c>
       <c r="C16">
-        <v>8.091775823851268</v>
+        <v>22.50246274098305</v>
       </c>
       <c r="D16">
-        <v>2.172923998066122</v>
+        <v>4.594427078130024</v>
       </c>
       <c r="E16">
-        <v>6.286994581526915</v>
+        <v>10.93235113487427</v>
       </c>
       <c r="F16">
-        <v>44.78379414263761</v>
+        <v>33.5033208103464</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.515084236705356</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.826426015594853</v>
       </c>
       <c r="J16">
-        <v>6.115647898078956</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>17.18587865600658</v>
+        <v>20.46295938358621</v>
       </c>
       <c r="L16">
-        <v>7.249487549462742</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.92823533228144</v>
+        <v>5.326036725717896</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.28797039526947</v>
+      </c>
+      <c r="P16">
+        <v>12.43614977289067</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.4511542981913</v>
+        <v>26.1113569355991</v>
       </c>
       <c r="C17">
-        <v>7.91344916540673</v>
+        <v>21.98389227245025</v>
       </c>
       <c r="D17">
-        <v>2.169470998802814</v>
+        <v>4.607551315410899</v>
       </c>
       <c r="E17">
-        <v>6.274962308710329</v>
+        <v>10.40559900779704</v>
       </c>
       <c r="F17">
-        <v>44.38365308995907</v>
+        <v>33.68298842892832</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>5.785635063099616</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.740968563468653</v>
       </c>
       <c r="J17">
-        <v>6.128549557196997</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>16.89930462606229</v>
+        <v>20.81159054997929</v>
       </c>
       <c r="L17">
-        <v>7.199871434108641</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.96730571795044</v>
+        <v>5.451255837309629</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.42824636821288</v>
+      </c>
+      <c r="P17">
+        <v>12.5566395911388</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.23294004792553</v>
+        <v>26.29372888537686</v>
       </c>
       <c r="C18">
-        <v>7.809656236114829</v>
+        <v>21.63523119129693</v>
       </c>
       <c r="D18">
-        <v>2.167416092430644</v>
+        <v>4.638326572742369</v>
       </c>
       <c r="E18">
-        <v>6.268297305944562</v>
+        <v>9.706583839435117</v>
       </c>
       <c r="F18">
-        <v>44.15563999459103</v>
+        <v>34.7390833902319</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.532026726185232</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.715242764445126</v>
       </c>
       <c r="J18">
-        <v>6.136118768700731</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>16.73375847464094</v>
+        <v>21.68984044348517</v>
       </c>
       <c r="L18">
-        <v>7.1716373867503</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.99038959765066</v>
+        <v>5.78953192223055</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.96810368640909</v>
+      </c>
+      <c r="P18">
+        <v>12.70248074795218</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.15886213987046</v>
+        <v>26.79852059226656</v>
       </c>
       <c r="C19">
-        <v>7.774301473067526</v>
+        <v>21.4737519304565</v>
       </c>
       <c r="D19">
-        <v>2.166708636928648</v>
+        <v>4.704891931573362</v>
       </c>
       <c r="E19">
-        <v>6.266084213379254</v>
+        <v>9.020910752133709</v>
       </c>
       <c r="F19">
-        <v>44.07880418518182</v>
+        <v>36.31082300214764</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.029821319226939</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.751240149892389</v>
       </c>
       <c r="J19">
-        <v>6.138706968301663</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>16.67758643611644</v>
+        <v>22.86216091123131</v>
       </c>
       <c r="L19">
-        <v>7.162129977651125</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.9983086892398</v>
+        <v>6.357631571929424</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.76639075792283</v>
+      </c>
+      <c r="P19">
+        <v>12.88358416358896</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.49144792406836</v>
+        <v>28.23120899117787</v>
       </c>
       <c r="C20">
-        <v>7.932558555127928</v>
+        <v>21.81651415630981</v>
       </c>
       <c r="D20">
-        <v>2.169845729511155</v>
+        <v>4.862571574727452</v>
       </c>
       <c r="E20">
-        <v>6.276216624494441</v>
+        <v>8.462213646645633</v>
       </c>
       <c r="F20">
-        <v>44.42602717498768</v>
+        <v>39.36041717207159</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1.785852336462378</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.943529454070525</v>
       </c>
       <c r="J20">
-        <v>6.127160755151322</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>16.92988553243788</v>
+        <v>24.90719781347284</v>
       </c>
       <c r="L20">
-        <v>7.205121701041501</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.96308288429619</v>
+        <v>7.455723368469769</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.24968085321762</v>
+      </c>
+      <c r="P20">
+        <v>13.15655668287315</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.5950455074172</v>
+        <v>30.04634871340784</v>
       </c>
       <c r="C21">
-        <v>8.449809706750884</v>
+        <v>23.22826556622505</v>
       </c>
       <c r="D21">
-        <v>2.179554451031139</v>
+        <v>4.874445721323727</v>
       </c>
       <c r="E21">
-        <v>6.313340581479274</v>
+        <v>8.822258682174651</v>
       </c>
       <c r="F21">
-        <v>45.6183255138171</v>
+        <v>41.47530823769278</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2.157963325364323</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.279819520074394</v>
       </c>
       <c r="J21">
-        <v>6.090150395188607</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>17.76889269127843</v>
+        <v>25.85337581578385</v>
       </c>
       <c r="L21">
-        <v>7.353201984524131</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.85217350151378</v>
+        <v>7.807937573912596</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.16118939089523</v>
+      </c>
+      <c r="P21">
+        <v>13.00940639662738</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.30572618712369</v>
+        <v>31.18652648434262</v>
       </c>
       <c r="C22">
-        <v>8.777445291343019</v>
+        <v>24.11343335998858</v>
       </c>
       <c r="D22">
-        <v>2.185259188063654</v>
+        <v>4.87652507540944</v>
       </c>
       <c r="E22">
-        <v>6.339960153734797</v>
+        <v>9.078978345333816</v>
       </c>
       <c r="F22">
-        <v>46.41706389614158</v>
+        <v>42.76802365336051</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2.393474373885243</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.490671822268788</v>
       </c>
       <c r="J22">
-        <v>6.06731239720794</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>18.31053698447602</v>
+        <v>26.42392858620423</v>
       </c>
       <c r="L22">
-        <v>7.452702677567477</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.78556349040859</v>
+        <v>7.980653509561836</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>17.68953314325924</v>
+      </c>
+      <c r="P22">
+        <v>12.90460354606556</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.92740156612242</v>
+        <v>30.60640467623009</v>
       </c>
       <c r="C23">
-        <v>8.603508479049996</v>
+        <v>23.6329723806189</v>
       </c>
       <c r="D23">
-        <v>2.182274401783468</v>
+        <v>4.880242057056739</v>
       </c>
       <c r="E23">
-        <v>6.325533076848068</v>
+        <v>8.943245549877139</v>
       </c>
       <c r="F23">
-        <v>45.98894996254623</v>
+        <v>42.13362342874056</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2.269928838911072</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.375912964126969</v>
       </c>
       <c r="J23">
-        <v>6.079376449198282</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>18.02207322613977</v>
+        <v>26.16266518404878</v>
       </c>
       <c r="L23">
-        <v>7.399347015484647</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.82055460385818</v>
+        <v>7.887690712396735</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>17.41756510268843</v>
+      </c>
+      <c r="P23">
+        <v>12.96943107288696</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.473235046666</v>
+        <v>28.30753045136559</v>
       </c>
       <c r="C24">
-        <v>7.923923162710332</v>
+        <v>21.76849617158564</v>
       </c>
       <c r="D24">
-        <v>2.169676530650709</v>
+        <v>4.884399943244995</v>
       </c>
       <c r="E24">
-        <v>6.275648762684104</v>
+        <v>8.422368588616042</v>
       </c>
       <c r="F24">
-        <v>44.40686352232368</v>
+        <v>39.59408809179315</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1.792958671083005</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.940356979129316</v>
       </c>
       <c r="J24">
-        <v>6.127788159792737</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>16.91606236390725</v>
+        <v>25.095442306937</v>
       </c>
       <c r="L24">
-        <v>7.202747149333537</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.96499009520779</v>
+        <v>7.52987748887283</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.33932095216957</v>
+      </c>
+      <c r="P24">
+        <v>13.20094222041261</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.86146289269955</v>
+        <v>25.6920015728752</v>
       </c>
       <c r="C25">
-        <v>7.143850469885618</v>
+        <v>19.61974312962398</v>
       </c>
       <c r="D25">
-        <v>2.153472268338049</v>
+        <v>4.884521308914037</v>
       </c>
       <c r="E25">
-        <v>6.231572028293218</v>
+        <v>7.847031062065025</v>
       </c>
       <c r="F25">
-        <v>42.78195105345311</v>
+        <v>36.74892310380082</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1.864834387878333</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.522911759957462</v>
       </c>
       <c r="J25">
-        <v>6.185674258756156</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>15.69614078222802</v>
+        <v>23.9280912799108</v>
       </c>
       <c r="L25">
-        <v>7.00230413122655</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.14398068575618</v>
+        <v>7.128117322295813</v>
       </c>
       <c r="O25">
+        <v>15.10378316076736</v>
+      </c>
+      <c r="P25">
+        <v>13.45235241047818</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.67131869529199</v>
+        <v>22.41384779844821</v>
       </c>
       <c r="C2">
-        <v>17.88056765976452</v>
+        <v>18.44375912955171</v>
       </c>
       <c r="D2">
-        <v>4.893074027814894</v>
+        <v>4.590460104815474</v>
       </c>
       <c r="E2">
-        <v>7.412114508374165</v>
+        <v>7.497547072430605</v>
       </c>
       <c r="F2">
-        <v>34.72142155912915</v>
+        <v>31.91830440729798</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.274228518122047</v>
+        <v>2.166828440160712</v>
       </c>
       <c r="I2">
-        <v>2.873063448946601</v>
+        <v>2.742528204567492</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>23.17231714683197</v>
+        <v>20.90014851374426</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>17.04831624505263</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.11854915998282</v>
       </c>
       <c r="N2">
-        <v>6.816238994923737</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>14.15804565802634</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.66159777961829</v>
+        <v>6.999149065271555</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.71554990733785</v>
+      </c>
+      <c r="R2">
+        <v>13.16181679735869</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.16013619055973</v>
+        <v>21.01163851557239</v>
       </c>
       <c r="C3">
-        <v>16.64004258310273</v>
+        <v>17.14437623015295</v>
       </c>
       <c r="D3">
-        <v>4.889923922260311</v>
+        <v>4.594383230454581</v>
       </c>
       <c r="E3">
-        <v>7.106012256698151</v>
+        <v>7.208098746236387</v>
       </c>
       <c r="F3">
-        <v>33.21757685988448</v>
+        <v>30.66918644725691</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.564858099359386</v>
+        <v>2.429553264698872</v>
       </c>
       <c r="I3">
-        <v>3.139336740355533</v>
+        <v>2.97482549335598</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>22.59013994042328</v>
+        <v>20.52346461411448</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>16.91076037179417</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.67597601151454</v>
       </c>
       <c r="N3">
-        <v>6.598790617653044</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>13.46855595581646</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.79194893239012</v>
+        <v>6.788876882503581</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.06492958327159</v>
+      </c>
+      <c r="R3">
+        <v>13.31846174609067</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.18009468676914</v>
+        <v>20.10036638758605</v>
       </c>
       <c r="C4">
-        <v>15.83902952240541</v>
+        <v>16.30439736140083</v>
       </c>
       <c r="D4">
-        <v>4.886745639774091</v>
+        <v>4.595746527527133</v>
       </c>
       <c r="E4">
-        <v>6.912874175538146</v>
+        <v>7.025351383970606</v>
       </c>
       <c r="F4">
-        <v>32.27058017260786</v>
+        <v>29.88380558656207</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.748777254057742</v>
+        <v>2.596031854738206</v>
       </c>
       <c r="I4">
-        <v>3.308620493321061</v>
+        <v>3.123043049854061</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>22.22841554683334</v>
+        <v>20.2898417431486</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>16.81830809640729</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.41958300350817</v>
       </c>
       <c r="N4">
-        <v>6.461681051701997</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>13.02812561325979</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>13.87224741555253</v>
+        <v>6.656609428513484</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.64890429963081</v>
+      </c>
+      <c r="R4">
+        <v>13.41514858661264</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.75924104693236</v>
+        <v>19.70847620369672</v>
       </c>
       <c r="C5">
-        <v>15.50669338567445</v>
+        <v>15.95527732823359</v>
       </c>
       <c r="D5">
-        <v>4.883838763560464</v>
+        <v>4.595321050067168</v>
       </c>
       <c r="E5">
-        <v>6.83251233613443</v>
+        <v>6.949316923560941</v>
       </c>
       <c r="F5">
-        <v>31.86192617368957</v>
+        <v>29.54344049622685</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.82570567934731</v>
+        <v>2.665722966834818</v>
       </c>
       <c r="I5">
-        <v>3.382056567412806</v>
+        <v>3.188282431173295</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>22.06741909202097</v>
+        <v>20.18275727248596</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>16.7693203264524</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.31139223489776</v>
       </c>
       <c r="N5">
-        <v>6.405251898473502</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>12.84177420187411</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>13.90261593782172</v>
+        <v>6.602251960262693</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.47280272272216</v>
+      </c>
+      <c r="R5">
+        <v>13.45305065118383</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.67825623667371</v>
+        <v>19.63294109269455</v>
       </c>
       <c r="C6">
-        <v>15.45588132126465</v>
+        <v>15.90139315852531</v>
       </c>
       <c r="D6">
-        <v>4.881749488188959</v>
+        <v>4.594359601040499</v>
       </c>
       <c r="E6">
-        <v>6.818705080922101</v>
+        <v>6.936282578713218</v>
       </c>
       <c r="F6">
-        <v>31.77265764953236</v>
+        <v>29.46708139349795</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.839256860869714</v>
+        <v>2.678011164199644</v>
       </c>
       <c r="I6">
-        <v>3.398139144467561</v>
+        <v>3.203595552812136</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>22.02517680849302</v>
+        <v>20.15109239676101</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>16.74972795735005</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.28402170495356</v>
       </c>
       <c r="N6">
-        <v>6.396218538008479</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>12.80723297147889</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.90470070026667</v>
+        <v>6.593548878983997</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.44018995987433</v>
+      </c>
+      <c r="R6">
+        <v>13.45735242721818</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.14692152441371</v>
+        <v>20.06923999676438</v>
       </c>
       <c r="C7">
-        <v>15.84782107579729</v>
+        <v>16.31231921697907</v>
       </c>
       <c r="D7">
-        <v>4.882390330511931</v>
+        <v>4.593405293195252</v>
       </c>
       <c r="E7">
-        <v>6.910770295633371</v>
+        <v>7.02344735958523</v>
       </c>
       <c r="F7">
-        <v>32.20831926356225</v>
+        <v>29.82650075391897</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.751674847434943</v>
+        <v>2.598678142014086</v>
       </c>
       <c r="I7">
-        <v>3.319748065506939</v>
+        <v>3.135626671644593</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>22.1843740792961</v>
+        <v>20.25087473824223</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>16.78728578884097</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.3915080464192</v>
       </c>
       <c r="N7">
-        <v>6.461979899982179</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>13.01661684793788</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>13.86461334754086</v>
+        <v>6.656882302462708</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.63812560724738</v>
+      </c>
+      <c r="R7">
+        <v>13.4102898506902</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.12730512161888</v>
+        <v>21.90910132430801</v>
       </c>
       <c r="C8">
-        <v>17.47693683449753</v>
+        <v>18.01963768724185</v>
       </c>
       <c r="D8">
-        <v>4.886645591203292</v>
+        <v>4.58919086980551</v>
       </c>
       <c r="E8">
-        <v>7.306325708076425</v>
+        <v>7.397671224544804</v>
       </c>
       <c r="F8">
-        <v>34.13671872810479</v>
+        <v>31.42535216238839</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.375706173146311</v>
+        <v>2.258533304045201</v>
       </c>
       <c r="I8">
-        <v>2.977045531106148</v>
+        <v>2.836883263851522</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>22.91874794637769</v>
+        <v>20.72254545883105</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.96478865489715</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.92731903994665</v>
       </c>
       <c r="N8">
-        <v>6.743403228189819</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>13.9126625191723</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>13.69606968586695</v>
+        <v>6.928645529467972</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.48420580034521</v>
+      </c>
+      <c r="R8">
+        <v>13.20905325834041</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.63955464952658</v>
+        <v>25.15861357660121</v>
       </c>
       <c r="C9">
-        <v>20.34361673163284</v>
+        <v>21.01802819363255</v>
       </c>
       <c r="D9">
-        <v>4.892400229243001</v>
+        <v>4.576152457550375</v>
       </c>
       <c r="E9">
-        <v>8.044533769387801</v>
+        <v>8.094612568062971</v>
       </c>
       <c r="F9">
-        <v>37.80936525707516</v>
+        <v>34.49006948801149</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.676841067358752</v>
+        <v>1.628129716631287</v>
       </c>
       <c r="I9">
-        <v>2.619695314365856</v>
+        <v>2.683713257289345</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>24.39232007655622</v>
+        <v>21.69218271034767</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>17.3003847774309</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>15.13385759274349</v>
       </c>
       <c r="N9">
-        <v>7.26372762875204</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>15.54345097306441</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>13.38115500011417</v>
+        <v>7.433268654573322</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.02057666069818</v>
+      </c>
+      <c r="R9">
+        <v>12.8263719421411</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.87240159127267</v>
+        <v>27.27073335429005</v>
       </c>
       <c r="C10">
-        <v>22.28261947307916</v>
+        <v>23.03300206191675</v>
       </c>
       <c r="D10">
-        <v>4.869180418496845</v>
+        <v>4.55347319628321</v>
       </c>
       <c r="E10">
-        <v>8.610283035297581</v>
+        <v>8.633893637761441</v>
       </c>
       <c r="F10">
-        <v>40.11499219185512</v>
+        <v>36.41506876088506</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.914113429287704</v>
+        <v>1.914807820245192</v>
       </c>
       <c r="I10">
-        <v>3.047906183770628</v>
+        <v>3.057824153687098</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>25.25694767822046</v>
+        <v>22.23478918804613</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>17.39586242905579</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.94450724088416</v>
       </c>
       <c r="N10">
-        <v>7.525089727878405</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>16.53210720493468</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>13.11025656545882</v>
+        <v>7.682759038853748</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.94854548318176</v>
+      </c>
+      <c r="R10">
+        <v>12.52510583217744</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.11548664425095</v>
+        <v>27.5740021030068</v>
       </c>
       <c r="C11">
-        <v>23.21068261434472</v>
+        <v>23.93794782941157</v>
       </c>
       <c r="D11">
-        <v>4.713199307110664</v>
+        <v>4.506687281096036</v>
       </c>
       <c r="E11">
-        <v>9.379298785986787</v>
+        <v>9.421164418118531</v>
       </c>
       <c r="F11">
-        <v>39.09756054541458</v>
+        <v>35.52316793707174</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.851532371702745</v>
+        <v>2.846116608343354</v>
       </c>
       <c r="I11">
-        <v>3.164687579541022</v>
+        <v>3.165965780059182</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>24.11716628288598</v>
+        <v>21.22501996771869</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>16.52370041479005</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.33278902911939</v>
       </c>
       <c r="N11">
-        <v>6.807748143502825</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>15.97142324366972</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.69511296991924</v>
+        <v>6.94179086895494</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.40868998703385</v>
+      </c>
+      <c r="R11">
+        <v>12.25323258153752</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.88274606458458</v>
+        <v>27.42054023276541</v>
       </c>
       <c r="C12">
-        <v>23.58338396997805</v>
+        <v>24.27606485214453</v>
       </c>
       <c r="D12">
-        <v>4.626401300690667</v>
+        <v>4.504825222500681</v>
       </c>
       <c r="E12">
-        <v>10.0711160953775</v>
+        <v>10.1280922345649</v>
       </c>
       <c r="F12">
-        <v>37.80736920009103</v>
+        <v>34.41511724906184</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.130407101973566</v>
+        <v>4.127511323269514</v>
       </c>
       <c r="I12">
-        <v>3.176084816238563</v>
+        <v>3.17880430763122</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>23.01878091848265</v>
+        <v>20.30154613819676</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>15.81128890658578</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.6687088250756</v>
       </c>
       <c r="N12">
-        <v>6.217950088836897</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>15.29335813585739</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.45530834675422</v>
+        <v>6.331068450507995</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.76056073698198</v>
+      </c>
+      <c r="R12">
+        <v>12.1315939242838</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.22250476500017</v>
+        <v>26.87106848872216</v>
       </c>
       <c r="C13">
-        <v>23.57744958037975</v>
+        <v>24.22262528502496</v>
       </c>
       <c r="D13">
-        <v>4.582333249221178</v>
+        <v>4.531687552879276</v>
       </c>
       <c r="E13">
-        <v>10.72720569941994</v>
+        <v>10.79798841507845</v>
       </c>
       <c r="F13">
-        <v>36.11688305272897</v>
+        <v>32.97176296449661</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.456264683055171</v>
+        <v>5.457509857656707</v>
       </c>
       <c r="I13">
-        <v>3.109626105385184</v>
+        <v>3.123455496964114</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>21.8117647504598</v>
+        <v>19.32494952425578</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>15.12661803279237</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.87402680199683</v>
       </c>
       <c r="N13">
-        <v>5.707622060560503</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>14.4555633572043</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.32591014983486</v>
+        <v>5.801074112763172</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.96290395929391</v>
+      </c>
+      <c r="R13">
+        <v>12.10794237608945</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.55118619591438</v>
+        <v>26.29342714024509</v>
       </c>
       <c r="C14">
-        <v>23.40588550636957</v>
+        <v>24.01083042824991</v>
       </c>
       <c r="D14">
-        <v>4.575318552324571</v>
+        <v>4.565940417288533</v>
       </c>
       <c r="E14">
-        <v>11.18312567944961</v>
+        <v>11.2622853803152</v>
       </c>
       <c r="F14">
-        <v>34.71892359884508</v>
+        <v>31.78010087758992</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.468706620923963</v>
+        <v>6.465554701751401</v>
       </c>
       <c r="I14">
-        <v>3.029185697827266</v>
+        <v>3.055394649367582</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>20.90384280838576</v>
+        <v>18.60664446191959</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>14.64952434933832</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.25053488132803</v>
       </c>
       <c r="N14">
-        <v>5.414142099658072</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>13.7853888299663</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.29057444524832</v>
+        <v>5.49455503201697</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.32587234866155</v>
+      </c>
+      <c r="R14">
+        <v>12.13833459918679</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.2851430040468</v>
+        <v>26.05778335927996</v>
       </c>
       <c r="C15">
-        <v>23.286630660341</v>
+        <v>23.87859832849701</v>
       </c>
       <c r="D15">
-        <v>4.578108357684556</v>
+        <v>4.576752647423485</v>
       </c>
       <c r="E15">
-        <v>11.26966256888326</v>
+        <v>11.35119284315097</v>
       </c>
       <c r="F15">
-        <v>34.27299482759857</v>
+        <v>31.39999821350047</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.710146535584408</v>
+        <v>6.706052569049489</v>
       </c>
       <c r="I15">
-        <v>2.993465226134361</v>
+        <v>3.025358617054779</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>20.64714032047105</v>
+        <v>18.40937910177692</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>14.52829675955101</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.06389870206472</v>
       </c>
       <c r="N15">
-        <v>5.350164780552512</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>13.58464177493702</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.29889341042932</v>
+        <v>5.4284436894398</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.13556537789055</v>
+      </c>
+      <c r="R15">
+        <v>12.16104681708741</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.40425419188042</v>
+        <v>25.233428478078</v>
       </c>
       <c r="C16">
-        <v>22.50246274098305</v>
+        <v>23.06824813689206</v>
       </c>
       <c r="D16">
-        <v>4.594427078130024</v>
+        <v>4.573666875357694</v>
       </c>
       <c r="E16">
-        <v>10.93235113487427</v>
+        <v>11.02009259463763</v>
       </c>
       <c r="F16">
-        <v>33.5033208103464</v>
+        <v>30.75749573977078</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.515084236705356</v>
+        <v>6.505820815393304</v>
       </c>
       <c r="I16">
-        <v>2.826426015594853</v>
+        <v>2.879767762330436</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>20.46295938358621</v>
+        <v>18.32848431415227</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>14.57086287797878</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.84582520673422</v>
       </c>
       <c r="N16">
-        <v>5.326036725717896</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>13.28797039526947</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.43614977289067</v>
+        <v>5.415878699505073</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.85828264839005</v>
+      </c>
+      <c r="R16">
+        <v>12.28126170938888</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.1113569355991</v>
+        <v>24.91026396023933</v>
       </c>
       <c r="C17">
-        <v>21.98389227245025</v>
+        <v>22.55188978894579</v>
       </c>
       <c r="D17">
-        <v>4.607551315410899</v>
+        <v>4.552046404504315</v>
       </c>
       <c r="E17">
-        <v>10.40559900779704</v>
+        <v>10.49461957624363</v>
       </c>
       <c r="F17">
-        <v>33.68298842892832</v>
+        <v>30.92139277730324</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.785635063099616</v>
+        <v>5.772124226001173</v>
       </c>
       <c r="I17">
-        <v>2.740968563468653</v>
+        <v>2.80435349015027</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>20.81159054997929</v>
+        <v>18.65278128568121</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.86490072500527</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.01404474400979</v>
       </c>
       <c r="N17">
-        <v>5.451255837309629</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>13.42824636821288</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.5566395911388</v>
+        <v>5.556484055219875</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.99541949149228</v>
+      </c>
+      <c r="R17">
+        <v>12.35710635339842</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.29372888537686</v>
+        <v>25.01261731720901</v>
       </c>
       <c r="C18">
-        <v>21.63523119129693</v>
+        <v>22.23118823108707</v>
       </c>
       <c r="D18">
-        <v>4.638326572742369</v>
+        <v>4.525384032489951</v>
       </c>
       <c r="E18">
-        <v>9.706583839435117</v>
+        <v>9.790894933818302</v>
       </c>
       <c r="F18">
-        <v>34.7390833902319</v>
+        <v>31.83320914303386</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.532026726185232</v>
+        <v>4.514523304902063</v>
       </c>
       <c r="I18">
-        <v>2.715242764445126</v>
+        <v>2.778359725599761</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>21.68984044348517</v>
+        <v>19.39145109140615</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>15.43840404415995</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.54671384180407</v>
       </c>
       <c r="N18">
-        <v>5.78953192223055</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>13.96810368640909</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.70248074795218</v>
+        <v>5.913452908111406</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.51196151844796</v>
+      </c>
+      <c r="R18">
+        <v>12.4228987224927</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.79852059226656</v>
+        <v>25.40936368276815</v>
       </c>
       <c r="C19">
-        <v>21.4737519304565</v>
+        <v>22.11454013613605</v>
       </c>
       <c r="D19">
-        <v>4.704891931573362</v>
+        <v>4.518432999008172</v>
       </c>
       <c r="E19">
-        <v>9.020910752133709</v>
+        <v>9.091977382672505</v>
       </c>
       <c r="F19">
-        <v>36.31082300214764</v>
+        <v>33.17660688366042</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.029821319226939</v>
+        <v>3.008248604688241</v>
       </c>
       <c r="I19">
-        <v>2.751240149892389</v>
+        <v>2.807860233542117</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033151</v>
       </c>
       <c r="K19">
-        <v>22.86216091123131</v>
+        <v>20.3512617578876</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>16.15552489368189</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.28249563272341</v>
       </c>
       <c r="N19">
-        <v>6.357631571929424</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>14.76639075792283</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.88358416358896</v>
+        <v>6.499660733015893</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.27364875694355</v>
+      </c>
+      <c r="R19">
+        <v>12.49915255446422</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.23120899117787</v>
+        <v>26.65834305130022</v>
       </c>
       <c r="C20">
-        <v>21.81651415630981</v>
+        <v>22.54604916091535</v>
       </c>
       <c r="D20">
-        <v>4.862571574727452</v>
+        <v>4.55427368956116</v>
       </c>
       <c r="E20">
-        <v>8.462213646645633</v>
+        <v>8.493490266949303</v>
       </c>
       <c r="F20">
-        <v>39.36041717207159</v>
+        <v>35.77035256635011</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.785852336462378</v>
+        <v>1.799353974684931</v>
       </c>
       <c r="I20">
-        <v>2.943529454070525</v>
+        <v>2.971544936492274</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>24.90719781347284</v>
+        <v>21.98152235848369</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>17.29044449753881</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.64261039764342</v>
       </c>
       <c r="N20">
-        <v>7.455723368469769</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>16.24968085321762</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>13.15655668287315</v>
+        <v>7.616331752887209</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.68373873506366</v>
+      </c>
+      <c r="R20">
+        <v>12.58990751852073</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.04634871340784</v>
+        <v>28.34680876813689</v>
       </c>
       <c r="C21">
-        <v>23.22826556622505</v>
+        <v>24.02172944058199</v>
       </c>
       <c r="D21">
-        <v>4.874445721323727</v>
+        <v>4.546843650595342</v>
       </c>
       <c r="E21">
-        <v>8.822258682174651</v>
+        <v>8.826761440098227</v>
       </c>
       <c r="F21">
-        <v>41.47530823769278</v>
+        <v>37.54875707060479</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.157963325364323</v>
+        <v>2.133270057351229</v>
       </c>
       <c r="I21">
-        <v>3.279819520074394</v>
+        <v>3.26327671535403</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>25.85337581578385</v>
+        <v>22.63517925130201</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>17.532117902573</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.46191881602418</v>
       </c>
       <c r="N21">
-        <v>7.807937573912596</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>17.16118939089523</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>13.00940639662738</v>
+        <v>7.962659335373194</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>16.54075715654644</v>
+      </c>
+      <c r="R21">
+        <v>12.39044104610179</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.18652648434262</v>
+        <v>29.39146136611443</v>
       </c>
       <c r="C22">
-        <v>24.11343335998858</v>
+        <v>24.94316834896195</v>
       </c>
       <c r="D22">
-        <v>4.87652507540944</v>
+        <v>4.539522957231642</v>
       </c>
       <c r="E22">
-        <v>9.078978345333816</v>
+        <v>9.067461659947277</v>
       </c>
       <c r="F22">
-        <v>42.76802365336051</v>
+        <v>38.64085746647154</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.393474373885243</v>
+        <v>2.344226406282663</v>
       </c>
       <c r="I22">
-        <v>3.490671822268788</v>
+        <v>3.444325721266082</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>26.42392858620423</v>
+        <v>23.02980120983659</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>17.66111196581407</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.97814405332194</v>
       </c>
       <c r="N22">
-        <v>7.980653509561836</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>17.68953314325924</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.90460354606556</v>
+        <v>8.130759568247878</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>17.03615371820047</v>
+      </c>
+      <c r="R22">
+        <v>12.25572938918341</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.60640467623009</v>
+        <v>28.86045362301162</v>
       </c>
       <c r="C23">
-        <v>23.6329723806189</v>
+        <v>24.44413343631557</v>
       </c>
       <c r="D23">
-        <v>4.880242057056739</v>
+        <v>4.54542920017025</v>
       </c>
       <c r="E23">
-        <v>8.943245549877139</v>
+        <v>8.940097847237434</v>
       </c>
       <c r="F23">
-        <v>42.13362342874056</v>
+        <v>38.10926400633961</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.269928838911072</v>
+        <v>2.233589682534189</v>
       </c>
       <c r="I23">
-        <v>3.375912964126969</v>
+        <v>3.343969367470837</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>26.16266518404878</v>
+        <v>22.85797969379577</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>17.62076857632751</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.73260694631578</v>
       </c>
       <c r="N23">
-        <v>7.887690712396735</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>17.41756510268843</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.96943107288696</v>
+        <v>8.040259727766312</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.78113119348778</v>
+      </c>
+      <c r="R23">
+        <v>12.33263582639623</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.30753045136559</v>
+        <v>26.72170234879059</v>
       </c>
       <c r="C24">
-        <v>21.76849617158564</v>
+        <v>22.50292945692182</v>
       </c>
       <c r="D24">
-        <v>4.884399943244995</v>
+        <v>4.56268502151121</v>
       </c>
       <c r="E24">
-        <v>8.422368588616042</v>
+        <v>8.450671554353116</v>
       </c>
       <c r="F24">
-        <v>39.59408809179315</v>
+        <v>35.97677718531403</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.792958671083005</v>
+        <v>1.805684216741918</v>
       </c>
       <c r="I24">
-        <v>2.940356979129316</v>
+        <v>2.965369992171154</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>25.095442306937</v>
+        <v>22.14306526503835</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>17.41342338812908</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.76350680131658</v>
       </c>
       <c r="N24">
-        <v>7.52987748887283</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>16.33932095216957</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>13.20094222041261</v>
+        <v>7.692050322659958</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.76898507840607</v>
+      </c>
+      <c r="R24">
+        <v>12.61558140679533</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.6920015728752</v>
+        <v>24.28307113767401</v>
       </c>
       <c r="C25">
-        <v>19.61974312962398</v>
+        <v>20.26002977351282</v>
       </c>
       <c r="D25">
-        <v>4.884521308914037</v>
+        <v>4.577182364464758</v>
       </c>
       <c r="E25">
-        <v>7.847031062065025</v>
+        <v>7.908545210211843</v>
       </c>
       <c r="F25">
-        <v>36.74892310380082</v>
+        <v>33.59522998336164</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.864834387878333</v>
+        <v>1.797470001239291</v>
       </c>
       <c r="I25">
-        <v>2.522911759957462</v>
+        <v>2.548074456468752</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>23.9280912799108</v>
+        <v>21.36896671775967</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>17.16843623262064</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.7495769231519</v>
       </c>
       <c r="N25">
-        <v>7.128117322295813</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>15.10378316076736</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>13.45235241047818</v>
+        <v>7.30155720040449</v>
       </c>
       <c r="Q25">
+        <v>14.60691070211557</v>
+      </c>
+      <c r="R25">
+        <v>12.92127787369962</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
